--- a/Code/Results/Cases/Case_5_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.509874005601716</v>
+        <v>2.529218117571702</v>
       </c>
       <c r="C2">
-        <v>1.105493545964464</v>
+        <v>0.6183499593703345</v>
       </c>
       <c r="D2">
-        <v>0.04336585985410579</v>
+        <v>0.02379892725871002</v>
       </c>
       <c r="E2">
-        <v>0.173703713693115</v>
+        <v>1.440116848846358</v>
       </c>
       <c r="F2">
-        <v>2.528896549905312</v>
+        <v>2.067288645643501</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,39 +442,45 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.336350052405322</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7053159664006401</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.067084129389002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.647065924885126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.161564942372308</v>
+        <v>2.177150597719901</v>
       </c>
       <c r="C3">
-        <v>0.9498033097956409</v>
+        <v>0.5352236545283517</v>
       </c>
       <c r="D3">
-        <v>0.04168773766913603</v>
+        <v>0.02405739604073887</v>
       </c>
       <c r="E3">
-        <v>0.1508314843461918</v>
+        <v>1.227816413332121</v>
       </c>
       <c r="F3">
-        <v>2.233464669090679</v>
+        <v>1.827274869126242</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,39 +489,45 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.20380081743032</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6073690177088622</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9169352325191156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.4610041305138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.950918628924569</v>
+        <v>1.964462486934934</v>
       </c>
       <c r="C4">
-        <v>0.8559658127324212</v>
+        <v>0.4849442242498014</v>
       </c>
       <c r="D4">
-        <v>0.04077442167886858</v>
+        <v>0.02430227127145557</v>
       </c>
       <c r="E4">
-        <v>0.1372303115794615</v>
+        <v>1.101310734404322</v>
       </c>
       <c r="F4">
-        <v>2.05793184343581</v>
+        <v>1.685207548065279</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,39 +536,45 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.125596053679146</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5481749952600978</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8266082537000585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.351144328970491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.865753341874324</v>
+        <v>1.878520679149176</v>
       </c>
       <c r="C5">
-        <v>0.8180960008670013</v>
+        <v>0.4646091119663822</v>
       </c>
       <c r="D5">
-        <v>0.04042836860297072</v>
+        <v>0.02442114300175646</v>
       </c>
       <c r="E5">
-        <v>0.1317839861913122</v>
+        <v>1.050565093193697</v>
       </c>
       <c r="F5">
-        <v>1.987695562552787</v>
+        <v>1.628482488079769</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -559,39 +583,45 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.094435008677564</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5242496119494575</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7901970967170797</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.307342260773765</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.851648796904527</v>
+        <v>1.864290254405716</v>
       </c>
       <c r="C6">
-        <v>0.8118281078699283</v>
+        <v>0.4612407876159637</v>
       </c>
       <c r="D6">
-        <v>0.04037239488137345</v>
+        <v>0.02444196466816351</v>
       </c>
       <c r="E6">
-        <v>0.1308850321636719</v>
+        <v>1.042183185446206</v>
       </c>
       <c r="F6">
-        <v>1.976106152801165</v>
+        <v>1.619129412393619</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -600,39 +630,45 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.089300982606403</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5202875776642912</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7841731327170294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.300123650110166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.949767495468137</v>
+        <v>1.963300669705575</v>
       </c>
       <c r="C7">
-        <v>0.8554536801807728</v>
+        <v>0.4846693995939688</v>
       </c>
       <c r="D7">
-        <v>0.04076965300045998</v>
+        <v>0.02430380033106516</v>
       </c>
       <c r="E7">
-        <v>0.1371564894874737</v>
+        <v>1.100623294316165</v>
       </c>
       <c r="F7">
-        <v>2.056979594937289</v>
+        <v>1.684438008241585</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -641,39 +677,45 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.125173053228565</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5478515841131326</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8261156782439585</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.350549853713886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.389024239732464</v>
+        <v>2.407009721771203</v>
       </c>
       <c r="C8">
-        <v>1.051401120817047</v>
+        <v>0.5895064908951611</v>
       </c>
       <c r="D8">
-        <v>0.04276084507873179</v>
+        <v>0.0238684969880758</v>
       </c>
       <c r="E8">
-        <v>0.1657160039327366</v>
+        <v>1.366013584704234</v>
       </c>
       <c r="F8">
-        <v>2.425700855639917</v>
+        <v>1.983326702225995</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -682,39 +724,45 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.289928698301594</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6713213081701568</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.014880508734969</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.581916011803102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.282807944349429</v>
+        <v>3.31228746866617</v>
       </c>
       <c r="C9">
-        <v>1.453294740184504</v>
+        <v>0.80305983378463</v>
       </c>
       <c r="D9">
-        <v>0.04776465661286267</v>
+        <v>0.02383589406362674</v>
       </c>
       <c r="E9">
-        <v>0.22600246587605</v>
+        <v>1.925495454467523</v>
       </c>
       <c r="F9">
-        <v>3.204444789198106</v>
+        <v>2.619999607434607</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -723,39 +771,45 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.642930838669528</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9230855676873233</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.4034973531883</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.07738089525958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.970315655343143</v>
+        <v>4.011145480536584</v>
       </c>
       <c r="C10">
-        <v>1.7653035441665</v>
+        <v>0.9680087150382803</v>
       </c>
       <c r="D10">
-        <v>0.05238828446845645</v>
+        <v>0.02454456303649266</v>
       </c>
       <c r="E10">
-        <v>0.2741529747255314</v>
+        <v>2.374707198352851</v>
       </c>
       <c r="F10">
-        <v>3.825227295450702</v>
+        <v>3.132392920509318</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -764,39 +818,45 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.928016788253899</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.117434684160244</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.706159004072902</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.478233859750745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.292764294525398</v>
+        <v>4.339791084401327</v>
       </c>
       <c r="C11">
-        <v>1.912498019512782</v>
+        <v>1.045687859860067</v>
       </c>
       <c r="D11">
-        <v>0.0547735800774376</v>
+        <v>0.02509330738024218</v>
       </c>
       <c r="E11">
-        <v>0.297234993924036</v>
+        <v>2.591483158402525</v>
       </c>
       <c r="F11">
-        <v>4.122142674927915</v>
+        <v>3.378978945753829</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -805,39 +865,45 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.065309193548586</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.208852353432746</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.849164779263234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.671722997613642</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.416560795750854</v>
+        <v>4.466131000335849</v>
       </c>
       <c r="C12">
-        <v>1.969156266818004</v>
+        <v>1.075575507428937</v>
       </c>
       <c r="D12">
-        <v>0.05572518617369582</v>
+        <v>0.02534089185612842</v>
       </c>
       <c r="E12">
-        <v>0.3061793581378467</v>
+        <v>2.675799439561771</v>
       </c>
       <c r="F12">
-        <v>4.237059642038247</v>
+        <v>3.474684621503599</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -846,39 +912,45 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.118593441624157</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.244001686583417</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.904243348056866</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.746916134809126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.38981845671259</v>
+        <v>4.438831202100403</v>
       </c>
       <c r="C13">
-        <v>1.95691013761666</v>
+        <v>1.069115994533632</v>
       </c>
       <c r="D13">
-        <v>0.05551795068247856</v>
+        <v>0.0252856673064592</v>
       </c>
       <c r="E13">
-        <v>0.304243357200555</v>
+        <v>2.657533217435287</v>
       </c>
       <c r="F13">
-        <v>4.21219285823264</v>
+        <v>3.453962124520643</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -887,39 +959,45 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.10705658134161</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.236406227247102</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.892337190103973</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.730630633323059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.302913307286929</v>
+        <v>4.350145069890061</v>
       </c>
       <c r="C14">
-        <v>1.91713987959514</v>
+        <v>1.048136675432033</v>
       </c>
       <c r="D14">
-        <v>0.05485085049632232</v>
+        <v>0.02511283151791233</v>
       </c>
       <c r="E14">
-        <v>0.2979665513076455</v>
+        <v>2.598372372585331</v>
       </c>
       <c r="F14">
-        <v>4.13154473510636</v>
+        <v>3.38680354458981</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -928,39 +1006,45 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.069665702818526</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.211732823238293</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.853676565202804</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.677868580393294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.24991146076286</v>
+        <v>4.29607963883052</v>
       </c>
       <c r="C15">
-        <v>1.892904418814169</v>
+        <v>1.035350788701123</v>
       </c>
       <c r="D15">
-        <v>0.05444878455143254</v>
+        <v>0.02501238896886449</v>
       </c>
       <c r="E15">
-        <v>0.2941494764177293</v>
+        <v>2.56243958149085</v>
       </c>
       <c r="F15">
-        <v>4.082481421389843</v>
+        <v>3.345983051748703</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -969,39 +1053,45 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.046937844277878</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.196692125952552</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.83012154463519</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.64581131759202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.949462357641266</v>
+        <v>3.989911770690185</v>
       </c>
       <c r="C16">
-        <v>1.755803154385546</v>
+        <v>0.9629928567948127</v>
       </c>
       <c r="D16">
-        <v>0.05223870875197179</v>
+        <v>0.02451383870616297</v>
       </c>
       <c r="E16">
-        <v>0.2726710143211619</v>
+        <v>2.360825947188388</v>
       </c>
       <c r="F16">
-        <v>3.806147526905363</v>
+        <v>3.116581071904676</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1010,39 +1100,45 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.919213878583463</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.111528880378501</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.696933419292023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.465839137186578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.767827179207814</v>
+        <v>3.805062779631953</v>
       </c>
       <c r="C17">
-        <v>1.67315041638534</v>
+        <v>0.9193406525077705</v>
       </c>
       <c r="D17">
-        <v>0.05096023998972754</v>
+        <v>0.02427063422806341</v>
       </c>
       <c r="E17">
-        <v>0.2598190018406186</v>
+        <v>2.240609729777319</v>
       </c>
       <c r="F17">
-        <v>3.640604567464635</v>
+        <v>2.97956126922233</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1051,39 +1147,45 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.842940179825973</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.060118989225487</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.616695799393483</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.358495281975792</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.664247792534297</v>
+        <v>3.6997285690436</v>
       </c>
       <c r="C18">
-        <v>1.626094656657642</v>
+        <v>0.8944753779434222</v>
       </c>
       <c r="D18">
-        <v>0.05025089884253475</v>
+        <v>0.02415154050616763</v>
       </c>
       <c r="E18">
-        <v>0.2525353844479667</v>
+        <v>2.172602881119587</v>
       </c>
       <c r="F18">
-        <v>3.546728132412653</v>
+        <v>2.901994372057828</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1092,39 +1194,45 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.799771627943784</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.030825535684556</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.571035302282837</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.297780028808674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.629322569598685</v>
+        <v>3.664224051370752</v>
       </c>
       <c r="C19">
-        <v>1.610240983255608</v>
+        <v>0.8860955192623123</v>
       </c>
       <c r="D19">
-        <v>0.05001497847543135</v>
+        <v>0.02411459318090436</v>
       </c>
       <c r="E19">
-        <v>0.2500869647308122</v>
+        <v>2.149760540213634</v>
       </c>
       <c r="F19">
-        <v>3.515162273244925</v>
+        <v>2.875934398948488</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1133,39 +1241,45 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.785270479626334</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.020951984743135</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.5556551682525</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.277390285169389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.787068197332928</v>
+        <v>3.8246359173977</v>
       </c>
       <c r="C20">
-        <v>1.681897768714066</v>
+        <v>0.9239618145407462</v>
       </c>
       <c r="D20">
-        <v>0.05109359221718535</v>
+        <v>0.02429432462045611</v>
       </c>
       <c r="E20">
-        <v>0.2611756594639232</v>
+        <v>2.253286250453229</v>
       </c>
       <c r="F20">
-        <v>3.658085617136805</v>
+        <v>2.994016003138057</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1174,39 +1288,45 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.850985633242942</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.065562420632631</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.62518543894862</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.36981388520519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.328390906232585</v>
+        <v>4.376139984301915</v>
       </c>
       <c r="C21">
-        <v>1.928794993683312</v>
+        <v>1.054285165772029</v>
       </c>
       <c r="D21">
-        <v>0.0550454125037092</v>
+        <v>0.02516245180902033</v>
       </c>
       <c r="E21">
-        <v>0.2998043690657326</v>
+        <v>2.615684864880123</v>
       </c>
       <c r="F21">
-        <v>4.155162224603146</v>
+        <v>3.406462976368744</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1215,39 +1335,45 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.080611404705479</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.218964691655032</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.865005600708869</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.693311014855354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.692216904421343</v>
+        <v>4.747801957444608</v>
       </c>
       <c r="C22">
-        <v>2.095609762841491</v>
+        <v>1.142268883507711</v>
       </c>
       <c r="D22">
-        <v>0.05791469210077338</v>
+        <v>0.02596639098092268</v>
       </c>
       <c r="E22">
-        <v>0.326258425582914</v>
+        <v>2.865802958779724</v>
       </c>
       <c r="F22">
-        <v>4.494728723779673</v>
+        <v>3.689833440817665</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1256,39 +1382,45 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.238350272888482</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.322380509546818</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.027231279217418</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.916141074746875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.497005290330833</v>
+        <v>4.548279645562047</v>
       </c>
       <c r="C23">
-        <v>2.006017192520119</v>
+        <v>1.095017614002245</v>
       </c>
       <c r="D23">
-        <v>0.0563541117168711</v>
+        <v>0.02551281643987124</v>
       </c>
       <c r="E23">
-        <v>0.3120158660651597</v>
+        <v>2.730922455593912</v>
       </c>
       <c r="F23">
-        <v>4.312002517142417</v>
+        <v>3.53718068531785</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1297,39 +1429,45 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.153385053519159</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.266858518496377</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.940085705092073</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.79604560291142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.778366722539602</v>
+        <v>3.815784005576006</v>
       </c>
       <c r="C24">
-        <v>1.677941662329602</v>
+        <v>0.9218718745087244</v>
       </c>
       <c r="D24">
-        <v>0.05103322429608426</v>
+        <v>0.02428355015534578</v>
       </c>
       <c r="E24">
-        <v>0.2605619894570879</v>
+        <v>2.247551779135179</v>
       </c>
       <c r="F24">
-        <v>3.650178425386798</v>
+        <v>2.987477284814446</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1338,39 +1476,45 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.847346173539336</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.063100634018113</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.621345823205345</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.364693659068308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.036495339458497</v>
+        <v>3.062463315143248</v>
       </c>
       <c r="C25">
-        <v>1.342117218692806</v>
+        <v>0.744136364520017</v>
       </c>
       <c r="D25">
-        <v>0.04626725468924064</v>
+        <v>0.02373546084566769</v>
       </c>
       <c r="E25">
-        <v>0.2091171831629168</v>
+        <v>1.768634532090843</v>
       </c>
       <c r="F25">
-        <v>2.986417772131688</v>
+        <v>2.44105078381277</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1379,19 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.543519709002211</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.853615865150573</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.295832845895276</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.937804115108634</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_12/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.529218117571702</v>
+        <v>2.492352276780082</v>
       </c>
       <c r="C2">
-        <v>0.6183499593703345</v>
+        <v>0.6883903245889655</v>
       </c>
       <c r="D2">
-        <v>0.02379892725871002</v>
+        <v>0.04863312103515227</v>
       </c>
       <c r="E2">
-        <v>1.440116848846358</v>
+        <v>0.1917227927996876</v>
       </c>
       <c r="F2">
-        <v>2.067288645643501</v>
+        <v>0.4149355530974077</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.124747011375792</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7053159664006401</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9906554378760717</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.647065924885126</v>
+        <v>1.080393347494862</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.177150597719901</v>
+        <v>2.174587017302997</v>
       </c>
       <c r="C3">
-        <v>0.5352236545283517</v>
+        <v>0.6053196121457631</v>
       </c>
       <c r="D3">
-        <v>0.02405739604073887</v>
+        <v>0.04308419426882892</v>
       </c>
       <c r="E3">
-        <v>1.227816413332121</v>
+        <v>0.1677501060472437</v>
       </c>
       <c r="F3">
-        <v>1.827274869126242</v>
+        <v>0.3785688633784474</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1306384602492514</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6073690177088622</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8583373503952529</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.4610041305138</v>
+        <v>1.007541744830007</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.964462486934934</v>
+        <v>1.979605286614344</v>
       </c>
       <c r="C4">
-        <v>0.4849442242498014</v>
+        <v>0.554334406796869</v>
       </c>
       <c r="D4">
-        <v>0.02430227127145557</v>
+        <v>0.03967371749843096</v>
       </c>
       <c r="E4">
-        <v>1.101310734404322</v>
+        <v>0.153573401901717</v>
       </c>
       <c r="F4">
-        <v>1.685207548065279</v>
+        <v>0.3574684735406493</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.135071359061083</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5481749952600978</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7776060035423029</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.351144328970491</v>
+        <v>0.9668372677243156</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.878520679149176</v>
+        <v>1.900152493042384</v>
       </c>
       <c r="C5">
-        <v>0.4646091119663822</v>
+        <v>0.53355498462696</v>
       </c>
       <c r="D5">
-        <v>0.02442114300175646</v>
+        <v>0.03828272414626355</v>
       </c>
       <c r="E5">
-        <v>1.050565093193697</v>
+        <v>0.1479192121763546</v>
       </c>
       <c r="F5">
-        <v>1.628482488079769</v>
+        <v>0.3491568769373927</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1370716294261758</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5242496119494575</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7448133177228797</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.307342260773765</v>
+        <v>0.951193565303285</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.864290254405716</v>
+        <v>1.886958863774254</v>
       </c>
       <c r="C6">
-        <v>0.4612407876159637</v>
+        <v>0.530104209694116</v>
       </c>
       <c r="D6">
-        <v>0.02444196466816351</v>
+        <v>0.0380516691815771</v>
       </c>
       <c r="E6">
-        <v>1.042183185446206</v>
+        <v>0.1469873844740803</v>
       </c>
       <c r="F6">
-        <v>1.619129412393619</v>
+        <v>0.347793454090322</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1374151621174935</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5202875776642912</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7393738784257025</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.300123650110166</v>
+        <v>0.9486509964218897</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.963300669705575</v>
+        <v>1.978533778696345</v>
       </c>
       <c r="C7">
-        <v>0.4846693995939688</v>
+        <v>0.5540541882917864</v>
       </c>
       <c r="D7">
-        <v>0.02430380033106516</v>
+        <v>0.03965496334568286</v>
       </c>
       <c r="E7">
-        <v>1.100623294316165</v>
+        <v>0.153496667001221</v>
       </c>
       <c r="F7">
-        <v>1.684438008241585</v>
+        <v>0.3573552467099361</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1350975650253545</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5478515841131326</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.77716334990901</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.350549853713886</v>
+        <v>0.9666225584988837</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.407009721771203</v>
+        <v>2.38274267296697</v>
       </c>
       <c r="C8">
-        <v>0.5895064908951611</v>
+        <v>0.6597384411355733</v>
       </c>
       <c r="D8">
-        <v>0.0238684969880758</v>
+        <v>0.04672034522156565</v>
       </c>
       <c r="E8">
-        <v>1.366013584704234</v>
+        <v>0.1833359711977067</v>
       </c>
       <c r="F8">
-        <v>1.983326702225995</v>
+        <v>0.4021276102946842</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.126602166447995</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6713213081701568</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9449115168699791</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.581916011803102</v>
+        <v>1.054395720469699</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.31228746866617</v>
+        <v>3.177820894031242</v>
       </c>
       <c r="C9">
-        <v>0.80305983378463</v>
+        <v>0.867534769228854</v>
       </c>
       <c r="D9">
-        <v>0.02383589406362674</v>
+        <v>0.06056591805162981</v>
       </c>
       <c r="E9">
-        <v>1.925495454467523</v>
+        <v>0.2468156274056952</v>
       </c>
       <c r="F9">
-        <v>2.619999607434607</v>
+        <v>0.5007375835153312</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1169515404609704</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9230855676873233</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.279057650946626</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.07738089525958</v>
+        <v>1.261781874751904</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.011145480536584</v>
+        <v>3.765632469227398</v>
       </c>
       <c r="C10">
-        <v>0.9680087150382803</v>
+        <v>1.021137242366905</v>
       </c>
       <c r="D10">
-        <v>0.02454456303649266</v>
+        <v>0.07076009989765453</v>
       </c>
       <c r="E10">
-        <v>2.374707198352851</v>
+        <v>0.2974809490926589</v>
       </c>
       <c r="F10">
-        <v>3.132392920509318</v>
+        <v>0.581360934238603</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.114932936418576</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.117434684160244</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.52943779584642</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.478233859750745</v>
+        <v>1.440593256537539</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.339791084401327</v>
+        <v>4.034377876879432</v>
       </c>
       <c r="C11">
-        <v>1.045687859860067</v>
+        <v>1.091365903250818</v>
       </c>
       <c r="D11">
-        <v>0.02509330738024218</v>
+        <v>0.07540937532809266</v>
       </c>
       <c r="E11">
-        <v>2.591483158402525</v>
+        <v>0.3216513532955361</v>
       </c>
       <c r="F11">
-        <v>3.378978945753829</v>
+        <v>0.6201963499639049</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1153087461870115</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.208852353432746</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.644824553552908</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.671722997613642</v>
+        <v>1.528879456445225</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.466131000335849</v>
+        <v>4.136386626945182</v>
       </c>
       <c r="C12">
-        <v>1.075575507428937</v>
+        <v>1.118023909595166</v>
       </c>
       <c r="D12">
-        <v>0.02534089185612842</v>
+        <v>0.07717226636987817</v>
       </c>
       <c r="E12">
-        <v>2.675799439561771</v>
+        <v>0.3309883509389593</v>
       </c>
       <c r="F12">
-        <v>3.474684621503599</v>
+        <v>0.635247607097341</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1156547569445543</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.244001686583417</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.688770849456503</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.746916134809126</v>
+        <v>1.563418906787888</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.438831202100403</v>
+        <v>4.114405718293597</v>
       </c>
       <c r="C13">
-        <v>1.069115994533632</v>
+        <v>1.112279567002219</v>
       </c>
       <c r="D13">
-        <v>0.0252856673064592</v>
+        <v>0.07679248321935717</v>
       </c>
       <c r="E13">
-        <v>2.657533217435287</v>
+        <v>0.3289688825472581</v>
       </c>
       <c r="F13">
-        <v>3.453962124520643</v>
+        <v>0.6319901177159579</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1155708815166747</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.236406227247102</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.679294385795274</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.730630633323059</v>
+        <v>1.555929133987888</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.350145069890061</v>
+        <v>4.042765089820421</v>
       </c>
       <c r="C14">
-        <v>1.048136675432033</v>
+        <v>1.093557713187806</v>
       </c>
       <c r="D14">
-        <v>0.02511283151791233</v>
+        <v>0.07555435945183575</v>
       </c>
       <c r="E14">
-        <v>2.598372372585331</v>
+        <v>0.3224156837369634</v>
       </c>
       <c r="F14">
-        <v>3.38680354458981</v>
+        <v>0.6214275005020653</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1153330241330117</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.211732823238293</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.648434764697299</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.677868580393294</v>
+        <v>1.531698187594998</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.29607963883052</v>
+        <v>3.998915949506795</v>
       </c>
       <c r="C15">
-        <v>1.035350788701123</v>
+        <v>1.082098770620576</v>
       </c>
       <c r="D15">
-        <v>0.02501238896886449</v>
+        <v>0.0747962927770871</v>
       </c>
       <c r="E15">
-        <v>2.56243958149085</v>
+        <v>0.3184263616752432</v>
       </c>
       <c r="F15">
-        <v>3.345983051748703</v>
+        <v>0.6150036147348601</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1152144050495068</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.196692125952552</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.629566338137138</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.64581131759202</v>
+        <v>1.517003635786125</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.989911770690185</v>
+        <v>3.74810035204564</v>
       </c>
       <c r="C16">
-        <v>0.9629928567948127</v>
+        <v>1.016555845200998</v>
       </c>
       <c r="D16">
-        <v>0.02451383870616297</v>
+        <v>0.07045654814911728</v>
       </c>
       <c r="E16">
-        <v>2.360825947188388</v>
+        <v>0.295925840412302</v>
       </c>
       <c r="F16">
-        <v>3.116581071904676</v>
+        <v>0.5788692950509429</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1149358893521502</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.111528880378501</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.521930095960784</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.465839137186578</v>
+        <v>1.434972373329941</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.805062779631953</v>
+        <v>3.594610236251128</v>
       </c>
       <c r="C17">
-        <v>0.9193406525077705</v>
+        <v>0.9764469677921852</v>
       </c>
       <c r="D17">
-        <v>0.02427063422806341</v>
+        <v>0.06779771031519033</v>
       </c>
       <c r="E17">
-        <v>2.240609729777319</v>
+        <v>0.2824255145817816</v>
       </c>
       <c r="F17">
-        <v>2.97956126922233</v>
+        <v>0.5572788782680504</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1151085571249837</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.060118989225487</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.456305646515034</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.358495281975792</v>
+        <v>1.386501978517884</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.6997285690436</v>
+        <v>3.506450508941157</v>
       </c>
       <c r="C18">
-        <v>0.8944753779434222</v>
+        <v>0.9534098859246001</v>
       </c>
       <c r="D18">
-        <v>0.02415154050616763</v>
+        <v>0.06626949690293316</v>
       </c>
       <c r="E18">
-        <v>2.172602881119587</v>
+        <v>0.2747646496554594</v>
       </c>
       <c r="F18">
-        <v>2.901994372057828</v>
+        <v>0.5450616649763802</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1153285397551436</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.030825535684556</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.418697746561946</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.297780028808674</v>
+        <v>1.359269655980597</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.664224051370752</v>
+        <v>3.476621025971212</v>
       </c>
       <c r="C19">
-        <v>0.8860955192623123</v>
+        <v>0.9456151278475602</v>
       </c>
       <c r="D19">
-        <v>0.02411459318090436</v>
+        <v>0.06575223819111642</v>
       </c>
       <c r="E19">
-        <v>2.149760540213634</v>
+        <v>0.2721880446823874</v>
       </c>
       <c r="F19">
-        <v>2.875934398948488</v>
+        <v>0.540958644223835</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1154232337069807</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.020951984743135</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.405986882687657</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.277390285169389</v>
+        <v>1.350157138951772</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.8246359173977</v>
+        <v>3.610936388602113</v>
       </c>
       <c r="C20">
-        <v>0.9239618145407462</v>
+        <v>0.9807131738947135</v>
       </c>
       <c r="D20">
-        <v>0.02429432462045611</v>
+        <v>0.06808063222010929</v>
       </c>
       <c r="E20">
-        <v>2.253286250453229</v>
+        <v>0.2838517086523922</v>
       </c>
       <c r="F20">
-        <v>2.994016003138057</v>
+        <v>0.5595561682722803</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1150775646071942</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.065562420632631</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.46327698193781</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.36981388520519</v>
+        <v>1.391594058244067</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.376139984301915</v>
+        <v>4.063800750807104</v>
       </c>
       <c r="C21">
-        <v>1.054285165772029</v>
+        <v>1.099054930457811</v>
       </c>
       <c r="D21">
-        <v>0.02516245180902033</v>
+        <v>0.07591795859222827</v>
       </c>
       <c r="E21">
-        <v>2.615684864880123</v>
+        <v>0.3243353254433714</v>
       </c>
       <c r="F21">
-        <v>3.406462976368744</v>
+        <v>0.6245203403241959</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1153972125920859</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.218964691655032</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.657491828792075</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.693311014855354</v>
+        <v>1.538784436177679</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.747801957444608</v>
+        <v>4.361201696629905</v>
       </c>
       <c r="C22">
-        <v>1.142268883507711</v>
+        <v>1.176777721724591</v>
       </c>
       <c r="D22">
-        <v>0.02596639098092268</v>
+        <v>0.08105390023751369</v>
       </c>
       <c r="E22">
-        <v>2.865802958779724</v>
+        <v>0.3518795598290225</v>
       </c>
       <c r="F22">
-        <v>3.689833440817665</v>
+        <v>0.6690080599584434</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1168026989937729</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.322380509546818</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.78591057861027</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.916141074746875</v>
+        <v>1.641493923264477</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.548279645562047</v>
+        <v>4.202325902132486</v>
       </c>
       <c r="C23">
-        <v>1.095017614002245</v>
+        <v>1.135256245857306</v>
       </c>
       <c r="D23">
-        <v>0.02551281643987124</v>
+        <v>0.07831127445282249</v>
       </c>
       <c r="E23">
-        <v>2.730922455593912</v>
+        <v>0.3370711986412687</v>
       </c>
       <c r="F23">
-        <v>3.53718068531785</v>
+        <v>0.645066185865403</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1159368669863596</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.266858518496377</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.717221433205168</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.79604560291142</v>
+        <v>1.586041641661865</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.815784005576006</v>
+        <v>3.603555077654391</v>
       </c>
       <c r="C24">
-        <v>0.9218718745087244</v>
+        <v>0.978784354416149</v>
       </c>
       <c r="D24">
-        <v>0.02428355015534578</v>
+        <v>0.06795272206353786</v>
       </c>
       <c r="E24">
-        <v>2.247551779135179</v>
+        <v>0.2832066144977716</v>
       </c>
       <c r="F24">
-        <v>2.987477284814446</v>
+        <v>0.5585259993996985</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.115091201642489</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.063100634018113</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.460124868778507</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.364693659068308</v>
+        <v>1.389289962494303</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.062463315143248</v>
+        <v>2.962256498185468</v>
       </c>
       <c r="C25">
-        <v>0.744136364520017</v>
+        <v>0.8112027257309364</v>
       </c>
       <c r="D25">
-        <v>0.02373546084566769</v>
+        <v>0.05681865063055369</v>
       </c>
       <c r="E25">
-        <v>1.768634532090843</v>
+        <v>0.2290132044252928</v>
       </c>
       <c r="F25">
-        <v>2.44105078381277</v>
+        <v>0.4727470645257412</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1187330059578748</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.853615865150573</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.187937702498118</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.937804115108634</v>
+        <v>1.201414879520712</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_12/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.492352276780082</v>
+        <v>0.8095196980875699</v>
       </c>
       <c r="C2">
-        <v>0.6883903245889655</v>
+        <v>0.2248015017041496</v>
       </c>
       <c r="D2">
-        <v>0.04863312103515227</v>
+        <v>0.01752849954091573</v>
       </c>
       <c r="E2">
-        <v>0.1917227927996876</v>
+        <v>0.1154778989324541</v>
       </c>
       <c r="F2">
-        <v>0.4149355530974077</v>
+        <v>0.4666915567120284</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.124747011375792</v>
+        <v>0.3178451623716221</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9906554378760717</v>
+        <v>0.3456511347932647</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.080393347494862</v>
+        <v>1.49006755305814</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.174587017302997</v>
+        <v>0.7078771821256851</v>
       </c>
       <c r="C3">
-        <v>0.6053196121457631</v>
+        <v>0.1978619620783775</v>
       </c>
       <c r="D3">
-        <v>0.04308419426882892</v>
+        <v>0.0156586582833711</v>
       </c>
       <c r="E3">
-        <v>0.1677501060472437</v>
+        <v>0.1108315602518104</v>
       </c>
       <c r="F3">
-        <v>0.3785688633784474</v>
+        <v>0.463561768233653</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.1306384602492514</v>
+        <v>0.3245545926818263</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8583373503952529</v>
+        <v>0.3069021009581689</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.007541744830007</v>
+        <v>1.493432419653843</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.979605286614344</v>
+        <v>0.6452677079924456</v>
       </c>
       <c r="C4">
-        <v>0.554334406796869</v>
+        <v>0.1812406018929664</v>
       </c>
       <c r="D4">
-        <v>0.03967371749843096</v>
+        <v>0.01450505921919643</v>
       </c>
       <c r="E4">
-        <v>0.153573401901717</v>
+        <v>0.1081095712119478</v>
       </c>
       <c r="F4">
-        <v>0.3574684735406493</v>
+        <v>0.4621030246409745</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.135071359061083</v>
+        <v>0.3290083440213127</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7776060035423029</v>
+        <v>0.2831425954706575</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9668372677243156</v>
+        <v>1.497032555072366</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.900152493042384</v>
+        <v>0.6197049179057217</v>
       </c>
       <c r="C5">
-        <v>0.53355498462696</v>
+        <v>0.1744474129770595</v>
       </c>
       <c r="D5">
-        <v>0.03828272414626355</v>
+        <v>0.01403360736040327</v>
       </c>
       <c r="E5">
-        <v>0.1479192121763546</v>
+        <v>0.1070329263859655</v>
       </c>
       <c r="F5">
-        <v>0.3491568769373927</v>
+        <v>0.4616246226559753</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.1370716294261758</v>
+        <v>0.330907036048556</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7448133177228797</v>
+        <v>0.2734686878302597</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.951193565303285</v>
+        <v>1.4988840719856</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.886958863774254</v>
+        <v>0.6154573261830762</v>
       </c>
       <c r="C6">
-        <v>0.530104209694116</v>
+        <v>0.1733182209742665</v>
       </c>
       <c r="D6">
-        <v>0.0380516691815771</v>
+        <v>0.01395524256825809</v>
       </c>
       <c r="E6">
-        <v>0.1469873844740803</v>
+        <v>0.106856109101674</v>
       </c>
       <c r="F6">
-        <v>0.347793454090322</v>
+        <v>0.4615521826102693</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.1374151621174935</v>
+        <v>0.3312273629607105</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7393738784257025</v>
+        <v>0.2718628461408557</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9486509964218897</v>
+        <v>1.49921469478403</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.978533778696345</v>
+        <v>0.6449231553299626</v>
       </c>
       <c r="C7">
-        <v>0.5540541882917864</v>
+        <v>0.1811490664583459</v>
       </c>
       <c r="D7">
-        <v>0.03965496334568286</v>
+        <v>0.01449870647803664</v>
       </c>
       <c r="E7">
-        <v>0.153496667001221</v>
+        <v>0.108094919683964</v>
       </c>
       <c r="F7">
-        <v>0.3573552467099361</v>
+        <v>0.4620961033594568</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.1350975650253545</v>
+        <v>0.3290336116940811</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.77716334990901</v>
+        <v>0.2830120960950069</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9666225584988837</v>
+        <v>1.497055970491829</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.38274267296697</v>
+        <v>0.7745158556203933</v>
       </c>
       <c r="C8">
-        <v>0.6597384411355733</v>
+        <v>0.2155296374935745</v>
       </c>
       <c r="D8">
-        <v>0.04672034522156565</v>
+        <v>0.01688494164645249</v>
       </c>
       <c r="E8">
-        <v>0.1833359711977067</v>
+        <v>0.1138484804919742</v>
       </c>
       <c r="F8">
-        <v>0.4021276102946842</v>
+        <v>0.4655160954658299</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.126602166447995</v>
+        <v>0.320089063765387</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9449115168699791</v>
+        <v>0.3322837554055909</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.054395720469699</v>
+        <v>1.490908555598367</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.177820894031242</v>
+        <v>1.027001681523927</v>
       </c>
       <c r="C9">
-        <v>0.867534769228854</v>
+        <v>0.2822995273424738</v>
       </c>
       <c r="D9">
-        <v>0.06056591805162981</v>
+        <v>0.02151934725362281</v>
       </c>
       <c r="E9">
-        <v>0.2468156274056952</v>
+        <v>0.1261849593141164</v>
       </c>
       <c r="F9">
-        <v>0.5007375835153312</v>
+        <v>0.475913767220014</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.1169515404609704</v>
+        <v>0.3052118937926558</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.279057650946626</v>
+        <v>0.4291645336342214</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.261781874751904</v>
+        <v>1.491087815790308</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.765632469227398</v>
+        <v>1.211446582613291</v>
       </c>
       <c r="C10">
-        <v>1.021137242366905</v>
+        <v>0.3309468636891779</v>
       </c>
       <c r="D10">
-        <v>0.07076009989765453</v>
+        <v>0.02489542674197054</v>
       </c>
       <c r="E10">
-        <v>0.2974809490926589</v>
+        <v>0.1359131060903138</v>
       </c>
       <c r="F10">
-        <v>0.581360934238603</v>
+        <v>0.4858292803131619</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.114932936418576</v>
+        <v>0.2959211570312767</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.52943779584642</v>
+        <v>0.5005096146014836</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.440593256537539</v>
+        <v>1.498766673317988</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.034377876879432</v>
+        <v>1.295115976528677</v>
       </c>
       <c r="C11">
-        <v>1.091365903250818</v>
+        <v>0.3529868942402743</v>
       </c>
       <c r="D11">
-        <v>0.07540937532809266</v>
+        <v>0.02642476604707866</v>
       </c>
       <c r="E11">
-        <v>0.3216513532955361</v>
+        <v>0.140487820143818</v>
       </c>
       <c r="F11">
-        <v>0.6201963499639049</v>
+        <v>0.4908400923093552</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.1153087461870115</v>
+        <v>0.2920539943756069</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.644824553552908</v>
+        <v>0.533004950474151</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.528879456445225</v>
+        <v>1.503917999767623</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.136386626945182</v>
+        <v>1.326764311612806</v>
       </c>
       <c r="C12">
-        <v>1.118023909595166</v>
+        <v>0.3613196692631391</v>
       </c>
       <c r="D12">
-        <v>0.07717226636987817</v>
+        <v>0.02700292933707971</v>
       </c>
       <c r="E12">
-        <v>0.3309883509389593</v>
+        <v>0.1422419899097065</v>
       </c>
       <c r="F12">
-        <v>0.635247607097341</v>
+        <v>0.4928099070009324</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.1156547569445543</v>
+        <v>0.2906415471166284</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.688770849456503</v>
+        <v>0.5453158901342334</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.563418906787888</v>
+        <v>1.506108606981769</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.114405718293597</v>
+        <v>1.31994987797151</v>
       </c>
       <c r="C13">
-        <v>1.112279567002219</v>
+        <v>0.3595256548818497</v>
       </c>
       <c r="D13">
-        <v>0.07679248321935717</v>
+        <v>0.02687845498419961</v>
       </c>
       <c r="E13">
-        <v>0.3289688825472581</v>
+        <v>0.1418632217955249</v>
       </c>
       <c r="F13">
-        <v>0.6319901177159579</v>
+        <v>0.4923824489407167</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.1155708815166747</v>
+        <v>0.2909434269713778</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.679294385795274</v>
+        <v>0.5426642588557087</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.555929133987888</v>
+        <v>1.505626127055791</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.042765089820421</v>
+        <v>1.297720423541534</v>
       </c>
       <c r="C14">
-        <v>1.093557713187806</v>
+        <v>0.3536727054982691</v>
       </c>
       <c r="D14">
-        <v>0.07555435945183575</v>
+        <v>0.02647235141961346</v>
       </c>
       <c r="E14">
-        <v>0.3224156837369634</v>
+        <v>0.1406316973284447</v>
       </c>
       <c r="F14">
-        <v>0.6214275005020653</v>
+        <v>0.4910006982770909</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.1153330241330117</v>
+        <v>0.2919367483219446</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.648434764697299</v>
+        <v>0.5340176660181726</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.531698187594998</v>
+        <v>1.504093405760898</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.998915949506795</v>
+        <v>1.284099577754091</v>
       </c>
       <c r="C15">
-        <v>1.082098770620576</v>
+        <v>0.3500858609158968</v>
       </c>
       <c r="D15">
-        <v>0.0747962927770871</v>
+        <v>0.02622347461790753</v>
       </c>
       <c r="E15">
-        <v>0.3184263616752432</v>
+        <v>0.1398802057122737</v>
       </c>
       <c r="F15">
-        <v>0.6150036147348601</v>
+        <v>0.4901637673437875</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.1152144050495068</v>
+        <v>0.2925519625321265</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.629566338137138</v>
+        <v>0.5287221124437309</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.517003635786125</v>
+        <v>1.503185856789116</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.74810035204564</v>
+        <v>1.205973716162532</v>
       </c>
       <c r="C16">
-        <v>1.016555845200998</v>
+        <v>0.329504654474249</v>
       </c>
       <c r="D16">
-        <v>0.07045654814911728</v>
+        <v>0.0247953478279328</v>
       </c>
       <c r="E16">
-        <v>0.295925840412302</v>
+        <v>0.1356171726912194</v>
       </c>
       <c r="F16">
-        <v>0.5788692950509429</v>
+        <v>0.485511911534509</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.1149358893521502</v>
+        <v>0.2961811401197103</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.521930095960784</v>
+        <v>0.498386765820257</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.434972373329941</v>
+        <v>1.498463514346895</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.594610236251128</v>
+        <v>1.157984578316018</v>
       </c>
       <c r="C17">
-        <v>0.9764469677921852</v>
+        <v>0.3168554566060777</v>
       </c>
       <c r="D17">
-        <v>0.06779771031519033</v>
+        <v>0.0239175590395746</v>
       </c>
       <c r="E17">
-        <v>0.2824255145817816</v>
+        <v>0.1330404368752909</v>
       </c>
       <c r="F17">
-        <v>0.5572788782680504</v>
+        <v>0.4827865469423429</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.1151085571249837</v>
+        <v>0.2984997502116009</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.456305646515034</v>
+        <v>0.4797872078058987</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.386501978517884</v>
+        <v>1.495992254748501</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.506450508941157</v>
+        <v>1.13036042098031</v>
       </c>
       <c r="C18">
-        <v>0.9534098859246001</v>
+        <v>0.309571534463231</v>
       </c>
       <c r="D18">
-        <v>0.06626949690293316</v>
+        <v>0.02341207258198352</v>
       </c>
       <c r="E18">
-        <v>0.2747646496554594</v>
+        <v>0.1315724012997066</v>
       </c>
       <c r="F18">
-        <v>0.5450616649763802</v>
+        <v>0.4812660461846079</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.1153285397551436</v>
+        <v>0.2998671485818178</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.418697746561946</v>
+        <v>0.4690930144836045</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.359269655980597</v>
+        <v>1.494726839439124</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.476621025971212</v>
+        <v>1.121003613107973</v>
       </c>
       <c r="C19">
-        <v>0.9456151278475602</v>
+        <v>0.3071038859982309</v>
       </c>
       <c r="D19">
-        <v>0.06575223819111642</v>
+        <v>0.02324082064728827</v>
       </c>
       <c r="E19">
-        <v>0.2721880446823874</v>
+        <v>0.131077749469803</v>
       </c>
       <c r="F19">
-        <v>0.540958644223835</v>
+        <v>0.4807593005557962</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.1154232337069807</v>
+        <v>0.3003359212279939</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.405986882687657</v>
+        <v>0.4654727969526391</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.350157138951772</v>
+        <v>1.494325137825598</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.610936388602113</v>
+        <v>1.163095400105192</v>
       </c>
       <c r="C20">
-        <v>0.9807131738947135</v>
+        <v>0.3182028613953491</v>
       </c>
       <c r="D20">
-        <v>0.06808063222010929</v>
+        <v>0.02401106408915865</v>
       </c>
       <c r="E20">
-        <v>0.2838517086523922</v>
+        <v>0.1333132797221666</v>
       </c>
       <c r="F20">
-        <v>0.5595561682722803</v>
+        <v>0.483071793531046</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.1150775646071942</v>
+        <v>0.2982494303234553</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.46327698193781</v>
+        <v>0.4817667720185739</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.391594058244067</v>
+        <v>1.496239169741216</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.063800750807104</v>
+        <v>1.304250727739316</v>
       </c>
       <c r="C21">
-        <v>1.099054930457811</v>
+        <v>0.3553922227492308</v>
       </c>
       <c r="D21">
-        <v>0.07591795859222827</v>
+        <v>0.02659166033619442</v>
       </c>
       <c r="E21">
-        <v>0.3243353254433714</v>
+        <v>0.1409928307931452</v>
       </c>
       <c r="F21">
-        <v>0.6245203403241959</v>
+        <v>0.4914045857643288</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.1153972125920859</v>
+        <v>0.2916435730649383</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.657491828792075</v>
+        <v>0.5365572271058738</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.538784436177679</v>
+        <v>1.504537080346552</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.361201696629905</v>
+        <v>1.396296551371961</v>
       </c>
       <c r="C22">
-        <v>1.176777721724591</v>
+        <v>0.3796198878458767</v>
       </c>
       <c r="D22">
-        <v>0.08105390023751369</v>
+        <v>0.02827259199222709</v>
       </c>
       <c r="E22">
-        <v>0.3518795598290225</v>
+        <v>0.1461392369728998</v>
       </c>
       <c r="F22">
-        <v>0.6690080599584434</v>
+        <v>0.497272320586049</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.1168026989937729</v>
+        <v>0.2876292866373369</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.78591057861027</v>
+        <v>0.5723989087631622</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.641493923264477</v>
+        <v>1.511359311726665</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.202325902132486</v>
+        <v>1.347189452966518</v>
       </c>
       <c r="C23">
-        <v>1.135256245857306</v>
+        <v>0.3666963641765619</v>
       </c>
       <c r="D23">
-        <v>0.07831127445282249</v>
+        <v>0.02737597470795095</v>
       </c>
       <c r="E23">
-        <v>0.3370711986412687</v>
+        <v>0.1433807319422655</v>
       </c>
       <c r="F23">
-        <v>0.645066185865403</v>
+        <v>0.4941018756241533</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.1159368669863596</v>
+        <v>0.2897439595537605</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.717221433205168</v>
+        <v>0.5532665473143226</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.586041641661865</v>
+        <v>1.507589659789801</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.603555077654391</v>
+        <v>1.160784905117168</v>
       </c>
       <c r="C24">
-        <v>0.978784354416149</v>
+        <v>0.3175937361992567</v>
       </c>
       <c r="D24">
-        <v>0.06795272206353786</v>
+        <v>0.02396879305113231</v>
       </c>
       <c r="E24">
-        <v>0.2832066144977716</v>
+        <v>0.1331898858714737</v>
       </c>
       <c r="F24">
-        <v>0.5585259993996985</v>
+        <v>0.4829426892079951</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.115091201642489</v>
+        <v>0.2983624928167501</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.460124868778507</v>
+        <v>0.4808718143371351</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.389289962494303</v>
+        <v>1.496127055689129</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.962256498185468</v>
+        <v>0.9588792958925865</v>
       </c>
       <c r="C25">
-        <v>0.8112027257309364</v>
+        <v>0.2643073860541847</v>
       </c>
       <c r="D25">
-        <v>0.05681865063055369</v>
+        <v>0.02027057965481305</v>
       </c>
       <c r="E25">
-        <v>0.2290132044252928</v>
+        <v>0.1227325180173082</v>
       </c>
       <c r="F25">
-        <v>0.4727470645257412</v>
+        <v>0.4727030551500206</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.1187330059578748</v>
+        <v>0.3089498032192175</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.187937702498118</v>
+        <v>0.4029270774830707</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.201414879520712</v>
+        <v>1.489720359830613</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_12/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8095196980875699</v>
+        <v>2.492352276780082</v>
       </c>
       <c r="C2">
-        <v>0.2248015017041496</v>
+        <v>0.6883903245890792</v>
       </c>
       <c r="D2">
-        <v>0.01752849954091573</v>
+        <v>0.04863312103510964</v>
       </c>
       <c r="E2">
-        <v>0.1154778989324541</v>
+        <v>0.1917227927996734</v>
       </c>
       <c r="F2">
-        <v>0.4666915567120284</v>
+        <v>0.4149355530974077</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0.3178451623716221</v>
+        <v>0.1247470113757778</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3456511347932647</v>
+        <v>0.9906554378760859</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.49006755305814</v>
+        <v>1.080393347494891</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7078771821256851</v>
+        <v>2.174587017302883</v>
       </c>
       <c r="C3">
-        <v>0.1978619620783775</v>
+        <v>0.6053196121455073</v>
       </c>
       <c r="D3">
-        <v>0.0156586582833711</v>
+        <v>0.04308419426860155</v>
       </c>
       <c r="E3">
-        <v>0.1108315602518104</v>
+        <v>0.1677501060472295</v>
       </c>
       <c r="F3">
-        <v>0.463561768233653</v>
+        <v>0.3785688633784474</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.3245545926818263</v>
+        <v>0.1306384602492496</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3069021009581689</v>
+        <v>0.8583373503952316</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.493432419653843</v>
+        <v>1.007541744829979</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6452677079924456</v>
+        <v>1.97960528661423</v>
       </c>
       <c r="C4">
-        <v>0.1812406018929664</v>
+        <v>0.5543344067965847</v>
       </c>
       <c r="D4">
-        <v>0.01450505921919643</v>
+        <v>0.03967371749869386</v>
       </c>
       <c r="E4">
-        <v>0.1081095712119478</v>
+        <v>0.1535734019016886</v>
       </c>
       <c r="F4">
-        <v>0.4621030246409745</v>
+        <v>0.357468473540635</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.3290083440213127</v>
+        <v>0.1350713590610813</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2831425954706575</v>
+        <v>0.7776060035422887</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.497032555072366</v>
+        <v>0.9668372677243582</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6197049179057217</v>
+        <v>1.900152493042413</v>
       </c>
       <c r="C5">
-        <v>0.1744474129770595</v>
+        <v>0.5335549846267327</v>
       </c>
       <c r="D5">
-        <v>0.01403360736040327</v>
+        <v>0.03828272414602907</v>
       </c>
       <c r="E5">
-        <v>0.1070329263859655</v>
+        <v>0.1479192121763759</v>
       </c>
       <c r="F5">
-        <v>0.4616246226559753</v>
+        <v>0.3491568769374069</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.330907036048556</v>
+        <v>0.137071629426174</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2734686878302597</v>
+        <v>0.7448133177228655</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.4988840719856</v>
+        <v>0.9511935653033134</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6154573261830762</v>
+        <v>1.886958863774083</v>
       </c>
       <c r="C6">
-        <v>0.1733182209742665</v>
+        <v>0.5301042096938318</v>
       </c>
       <c r="D6">
-        <v>0.01395524256825809</v>
+        <v>0.03805166918176184</v>
       </c>
       <c r="E6">
-        <v>0.106856109101674</v>
+        <v>0.1469873844740839</v>
       </c>
       <c r="F6">
-        <v>0.4615521826102693</v>
+        <v>0.3477934540903291</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.3312273629607105</v>
+        <v>0.1374151621175059</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2718628461408557</v>
+        <v>0.7393738784256954</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.49921469478403</v>
+        <v>0.9486509964218897</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6449231553299626</v>
+        <v>1.978533778696402</v>
       </c>
       <c r="C7">
-        <v>0.1811490664583459</v>
+        <v>0.5540541882918433</v>
       </c>
       <c r="D7">
-        <v>0.01449870647803664</v>
+        <v>0.03965496334558338</v>
       </c>
       <c r="E7">
-        <v>0.108094919683964</v>
+        <v>0.1534966670012281</v>
       </c>
       <c r="F7">
-        <v>0.4620961033594568</v>
+        <v>0.3573552467099361</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.3290336116940811</v>
+        <v>0.1350975650253492</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2830120960950069</v>
+        <v>0.7771633499089958</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.497055970491829</v>
+        <v>0.9666225584988837</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7745158556203933</v>
+        <v>2.382742672966913</v>
       </c>
       <c r="C8">
-        <v>0.2155296374935745</v>
+        <v>0.6597384411357439</v>
       </c>
       <c r="D8">
-        <v>0.01688494164645249</v>
+        <v>0.04672034522168644</v>
       </c>
       <c r="E8">
-        <v>0.1138484804919742</v>
+        <v>0.1833359711977209</v>
       </c>
       <c r="F8">
-        <v>0.4655160954658299</v>
+        <v>0.4021276102946771</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.320089063765387</v>
+        <v>0.1266021664479986</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3322837554055909</v>
+        <v>0.9449115168699578</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.490908555598367</v>
+        <v>1.054395720469643</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.027001681523927</v>
+        <v>3.177820894031413</v>
       </c>
       <c r="C9">
-        <v>0.2822995273424738</v>
+        <v>0.8675347692285982</v>
       </c>
       <c r="D9">
-        <v>0.02151934725362281</v>
+        <v>0.06056591805150902</v>
       </c>
       <c r="E9">
-        <v>0.1261849593141164</v>
+        <v>0.2468156274057023</v>
       </c>
       <c r="F9">
-        <v>0.475913767220014</v>
+        <v>0.5007375835153525</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.3052118937926558</v>
+        <v>0.1169515404609527</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4291645336342214</v>
+        <v>1.279057650946612</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.491087815790308</v>
+        <v>1.261781874751875</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.211446582613291</v>
+        <v>3.765632469227285</v>
       </c>
       <c r="C10">
-        <v>0.3309468636891779</v>
+        <v>1.021137242366621</v>
       </c>
       <c r="D10">
-        <v>0.02489542674197054</v>
+        <v>0.07076009989771137</v>
       </c>
       <c r="E10">
-        <v>0.1359131060903138</v>
+        <v>0.2974809490926731</v>
       </c>
       <c r="F10">
-        <v>0.4858292803131619</v>
+        <v>0.581360934238603</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.2959211570312767</v>
+        <v>0.114932936418576</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5005096146014836</v>
+        <v>1.52943779584642</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.498766673317988</v>
+        <v>1.440593256537454</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.295115976528677</v>
+        <v>4.034377876879489</v>
       </c>
       <c r="C11">
-        <v>0.3529868942402743</v>
+        <v>1.091365903251045</v>
       </c>
       <c r="D11">
-        <v>0.02642476604707866</v>
+        <v>0.07540937532805714</v>
       </c>
       <c r="E11">
-        <v>0.140487820143818</v>
+        <v>0.3216513532955432</v>
       </c>
       <c r="F11">
-        <v>0.4908400923093552</v>
+        <v>0.6201963499639334</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.2920539943756069</v>
+        <v>0.1153087461869973</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.533004950474151</v>
+        <v>1.644824553552922</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.503917999767623</v>
+        <v>1.528879456445253</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.326764311612806</v>
+        <v>4.136386626945296</v>
       </c>
       <c r="C12">
-        <v>0.3613196692631391</v>
+        <v>1.118023909594967</v>
       </c>
       <c r="D12">
-        <v>0.02700292933707971</v>
+        <v>0.0771722663700487</v>
       </c>
       <c r="E12">
-        <v>0.1422419899097065</v>
+        <v>0.3309883509389735</v>
       </c>
       <c r="F12">
-        <v>0.4928099070009324</v>
+        <v>0.6352476070973267</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.2906415471166284</v>
+        <v>0.1156547569445507</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5453158901342334</v>
+        <v>1.688770849456503</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.506108606981769</v>
+        <v>1.563418906787888</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.31994987797151</v>
+        <v>4.114405718293767</v>
       </c>
       <c r="C13">
-        <v>0.3595256548818497</v>
+        <v>1.112279567002162</v>
       </c>
       <c r="D13">
-        <v>0.02687845498419961</v>
+        <v>0.07679248321917953</v>
       </c>
       <c r="E13">
-        <v>0.1418632217955249</v>
+        <v>0.3289688825472439</v>
       </c>
       <c r="F13">
-        <v>0.4923824489407167</v>
+        <v>0.6319901177159721</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.2909434269713778</v>
+        <v>0.1155708815166605</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5426642588557087</v>
+        <v>1.679294385795245</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.505626127055791</v>
+        <v>1.555929133987945</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.297720423541534</v>
+        <v>4.042765089820364</v>
       </c>
       <c r="C14">
-        <v>0.3536727054982691</v>
+        <v>1.093557713187636</v>
       </c>
       <c r="D14">
-        <v>0.02647235141961346</v>
+        <v>0.07555435945183575</v>
       </c>
       <c r="E14">
-        <v>0.1406316973284447</v>
+        <v>0.3224156837369421</v>
       </c>
       <c r="F14">
-        <v>0.4910006982770909</v>
+        <v>0.6214275005020795</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.2919367483219446</v>
+        <v>0.1153330241330295</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5340176660181726</v>
+        <v>1.648434764697299</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.504093405760898</v>
+        <v>1.531698187594998</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.284099577754091</v>
+        <v>3.998915949506795</v>
       </c>
       <c r="C15">
-        <v>0.3500858609158968</v>
+        <v>1.082098770620718</v>
       </c>
       <c r="D15">
-        <v>0.02622347461790753</v>
+        <v>0.07479629277702315</v>
       </c>
       <c r="E15">
-        <v>0.1398802057122737</v>
+        <v>0.3184263616752432</v>
       </c>
       <c r="F15">
-        <v>0.4901637673437875</v>
+        <v>0.6150036147348743</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.2925519625321265</v>
+        <v>0.1152144050495281</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5287221124437309</v>
+        <v>1.629566338137124</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.503185856789116</v>
+        <v>1.517003635786182</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.205973716162532</v>
+        <v>3.74810035204564</v>
       </c>
       <c r="C16">
-        <v>0.329504654474249</v>
+        <v>1.016555845201253</v>
       </c>
       <c r="D16">
-        <v>0.0247953478279328</v>
+        <v>0.07045654814911018</v>
       </c>
       <c r="E16">
-        <v>0.1356171726912194</v>
+        <v>0.2959258404122664</v>
       </c>
       <c r="F16">
-        <v>0.485511911534509</v>
+        <v>0.5788692950509358</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.2961811401197103</v>
+        <v>0.1149358893521502</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.498386765820257</v>
+        <v>1.521930095960755</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.498463514346895</v>
+        <v>1.434972373329941</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.157984578316018</v>
+        <v>3.594610236251242</v>
       </c>
       <c r="C17">
-        <v>0.3168554566060777</v>
+        <v>0.9764469677925263</v>
       </c>
       <c r="D17">
-        <v>0.0239175590395746</v>
+        <v>0.06779771031509796</v>
       </c>
       <c r="E17">
-        <v>0.1330404368752909</v>
+        <v>0.282425514581746</v>
       </c>
       <c r="F17">
-        <v>0.4827865469423429</v>
+        <v>0.5572788782680647</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.2984997502116009</v>
+        <v>0.1151085571249766</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4797872078058987</v>
+        <v>1.456305646515062</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.495992254748501</v>
+        <v>1.386501978517884</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.13036042098031</v>
+        <v>3.506450508941271</v>
       </c>
       <c r="C18">
-        <v>0.309571534463231</v>
+        <v>0.9534098859246001</v>
       </c>
       <c r="D18">
-        <v>0.02341207258198352</v>
+        <v>0.06626949690298289</v>
       </c>
       <c r="E18">
-        <v>0.1315724012997066</v>
+        <v>0.2747646496554808</v>
       </c>
       <c r="F18">
-        <v>0.4812660461846079</v>
+        <v>0.545061664976366</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.2998671485818178</v>
+        <v>0.1153285397551436</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4690930144836045</v>
+        <v>1.418697746561961</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.494726839439124</v>
+        <v>1.359269655980626</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.121003613107973</v>
+        <v>3.476621025971269</v>
       </c>
       <c r="C19">
-        <v>0.3071038859982309</v>
+        <v>0.9456151278474181</v>
       </c>
       <c r="D19">
-        <v>0.02324082064728827</v>
+        <v>0.06575223819121589</v>
       </c>
       <c r="E19">
-        <v>0.131077749469803</v>
+        <v>0.2721880446824159</v>
       </c>
       <c r="F19">
-        <v>0.4807593005557962</v>
+        <v>0.5409586442238492</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.3003359212279939</v>
+        <v>0.1154232337069629</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4654727969526391</v>
+        <v>1.405986882687642</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.494325137825598</v>
+        <v>1.350157138951943</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.163095400105192</v>
+        <v>3.610936388602227</v>
       </c>
       <c r="C20">
-        <v>0.3182028613953491</v>
+        <v>0.9807131738947419</v>
       </c>
       <c r="D20">
-        <v>0.02401106408915865</v>
+        <v>0.06808063222027982</v>
       </c>
       <c r="E20">
-        <v>0.1333132797221666</v>
+        <v>0.2838517086523851</v>
       </c>
       <c r="F20">
-        <v>0.483071793531046</v>
+        <v>0.5595561682722803</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.2982494303234553</v>
+        <v>0.11507756460718</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4817667720185739</v>
+        <v>1.463276981937796</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.496239169741216</v>
+        <v>1.391594058244095</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.304250727739316</v>
+        <v>4.063800750807104</v>
       </c>
       <c r="C21">
-        <v>0.3553922227492308</v>
+        <v>1.099054930458067</v>
       </c>
       <c r="D21">
-        <v>0.02659166033619442</v>
+        <v>0.07591795859235617</v>
       </c>
       <c r="E21">
-        <v>0.1409928307931452</v>
+        <v>0.3243353254433643</v>
       </c>
       <c r="F21">
-        <v>0.4914045857643288</v>
+        <v>0.6245203403241959</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.2916435730649383</v>
+        <v>0.1153972125920859</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5365572271058738</v>
+        <v>1.657491828792075</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.504537080346552</v>
+        <v>1.538784436177707</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.396296551371961</v>
+        <v>4.361201696630019</v>
       </c>
       <c r="C22">
-        <v>0.3796198878458767</v>
+        <v>1.176777721724136</v>
       </c>
       <c r="D22">
-        <v>0.02827259199222709</v>
+        <v>0.0810539002377979</v>
       </c>
       <c r="E22">
-        <v>0.1461392369728998</v>
+        <v>0.3518795598290296</v>
       </c>
       <c r="F22">
-        <v>0.497272320586049</v>
+        <v>0.6690080599584434</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.2876292866373369</v>
+        <v>0.1168026989937836</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5723989087631622</v>
+        <v>1.785910578610284</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.511359311726665</v>
+        <v>1.641493923264477</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.347189452966518</v>
+        <v>4.202325902132486</v>
       </c>
       <c r="C23">
-        <v>0.3666963641765619</v>
+        <v>1.135256245857533</v>
       </c>
       <c r="D23">
-        <v>0.02737597470795095</v>
+        <v>0.07831127445275854</v>
       </c>
       <c r="E23">
-        <v>0.1433807319422655</v>
+        <v>0.3370711986412829</v>
       </c>
       <c r="F23">
-        <v>0.4941018756241533</v>
+        <v>0.645066185865403</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.2897439595537605</v>
+        <v>0.1159368669863454</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5532665473143226</v>
+        <v>1.717221433205168</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.507589659789801</v>
+        <v>1.586041641661808</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.160784905117168</v>
+        <v>3.603555077654448</v>
       </c>
       <c r="C24">
-        <v>0.3175937361992567</v>
+        <v>0.9787843544160637</v>
       </c>
       <c r="D24">
-        <v>0.02396879305113231</v>
+        <v>0.0679527220635805</v>
       </c>
       <c r="E24">
-        <v>0.1331898858714737</v>
+        <v>0.2832066144977858</v>
       </c>
       <c r="F24">
-        <v>0.4829426892079951</v>
+        <v>0.5585259993996985</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.2983624928167501</v>
+        <v>0.115091201642489</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4808718143371351</v>
+        <v>1.460124868778536</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.496127055689129</v>
+        <v>1.389289962494303</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9588792958925865</v>
+        <v>2.962256498185354</v>
       </c>
       <c r="C25">
-        <v>0.2643073860541847</v>
+        <v>0.811202725730908</v>
       </c>
       <c r="D25">
-        <v>0.02027057965481305</v>
+        <v>0.05681865063048264</v>
       </c>
       <c r="E25">
-        <v>0.1227325180173082</v>
+        <v>0.2290132044252857</v>
       </c>
       <c r="F25">
-        <v>0.4727030551500206</v>
+        <v>0.4727470645257483</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.3089498032192175</v>
+        <v>0.1187330059578855</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4029270774830707</v>
+        <v>1.187937702498132</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.489720359830613</v>
+        <v>1.201414879520797</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.492352276780082</v>
+        <v>1.002870284560657</v>
       </c>
       <c r="C2">
-        <v>0.6883903245890792</v>
+        <v>0.2367893809097978</v>
       </c>
       <c r="D2">
-        <v>0.04863312103510964</v>
+        <v>0.06917483394727242</v>
       </c>
       <c r="E2">
-        <v>0.1917227927996734</v>
+        <v>1.288497911585296</v>
       </c>
       <c r="F2">
-        <v>0.4149355530974077</v>
+        <v>0.5173257597712109</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.004494954454769773</v>
       </c>
       <c r="I2">
-        <v>0.1247470113757778</v>
+        <v>0.0004725720980895964</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3117739213565898</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9906554378760859</v>
+        <v>1.179976351462074</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.080393347494891</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.555960404762772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.174587017302883</v>
+        <v>0.874769149183436</v>
       </c>
       <c r="C3">
-        <v>0.6053196121455073</v>
+        <v>0.2099287711564415</v>
       </c>
       <c r="D3">
-        <v>0.04308419426860155</v>
+        <v>0.06251960073977614</v>
       </c>
       <c r="E3">
-        <v>0.1677501060472295</v>
+        <v>1.121019753142491</v>
       </c>
       <c r="F3">
-        <v>0.3785688633784474</v>
+        <v>0.4900385520879027</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.002697183626527266</v>
+      </c>
+      <c r="I3">
+        <v>0.0007354908268393245</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0.1306384602492496</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3122970010318156</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8583373503952316</v>
+        <v>1.032101767203727</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.007541744829979</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.508765303063768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.97960528661423</v>
+        <v>0.7958685259380331</v>
       </c>
       <c r="C4">
-        <v>0.5543344067965847</v>
+        <v>0.1936281177496824</v>
       </c>
       <c r="D4">
-        <v>0.03967371749869386</v>
+        <v>0.05843191180554186</v>
       </c>
       <c r="E4">
-        <v>0.1535734019016886</v>
+        <v>1.018394304790291</v>
       </c>
       <c r="F4">
-        <v>0.357468473540635</v>
+        <v>0.4737155108570619</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.001791684380057834</v>
+      </c>
+      <c r="I4">
+        <v>0.001089146306462396</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0.1350713590610813</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3128178540986717</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7776060035422887</v>
+        <v>0.9413552070135722</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9668372677243582</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.481015802764901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.900152493042413</v>
+        <v>0.7633177895516781</v>
       </c>
       <c r="C5">
-        <v>0.5335549846267327</v>
+        <v>0.1875012181386211</v>
       </c>
       <c r="D5">
-        <v>0.03828272414602907</v>
+        <v>0.05683551579215163</v>
       </c>
       <c r="E5">
-        <v>0.1479192121763759</v>
+        <v>0.9765978771394117</v>
       </c>
       <c r="F5">
-        <v>0.3491568769374069</v>
+        <v>0.4665801299141989</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.001468463327688241</v>
+      </c>
+      <c r="I5">
+        <v>0.001349465107188585</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0.137071629426174</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3126433361659764</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7448133177228655</v>
+        <v>0.9047722951682147</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9511935653033134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.468078846422728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.886958863774083</v>
+        <v>0.7575020923567592</v>
       </c>
       <c r="C6">
-        <v>0.5301042096938318</v>
+        <v>0.1870656808104769</v>
       </c>
       <c r="D6">
-        <v>0.03805166918176184</v>
+        <v>0.05665642784325797</v>
       </c>
       <c r="E6">
-        <v>0.1469873844740839</v>
+        <v>0.9696452843652708</v>
       </c>
       <c r="F6">
-        <v>0.3477934540903291</v>
+        <v>0.4646861949424306</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.001416667094991997</v>
+      </c>
+      <c r="I6">
+        <v>0.001488814111365144</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0.1374151621175059</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3120869101472969</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7393738784256954</v>
+        <v>0.8991798142887149</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9486509964218897</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.463603625886492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.978533778696402</v>
+        <v>0.7943154758928017</v>
       </c>
       <c r="C7">
-        <v>0.5540541882918433</v>
+        <v>0.1951308879443161</v>
       </c>
       <c r="D7">
-        <v>0.03965496334558338</v>
+        <v>0.0586463015045311</v>
       </c>
       <c r="E7">
-        <v>0.1534966670012281</v>
+        <v>1.017791675549674</v>
       </c>
       <c r="F7">
-        <v>0.3573552467099361</v>
+        <v>0.4716658256566078</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.001784577548196831</v>
+      </c>
+      <c r="I7">
+        <v>0.00133183939380821</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0.1350975650253492</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3113684325938593</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7771633499089958</v>
+        <v>0.942182596072513</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9666225584988837</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.474441074629866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.382742672966913</v>
+        <v>0.9572589335486441</v>
       </c>
       <c r="C8">
-        <v>0.6597384411357439</v>
+        <v>0.229604454556366</v>
       </c>
       <c r="D8">
-        <v>0.04672034522168644</v>
+        <v>0.06719666738198526</v>
       </c>
       <c r="E8">
-        <v>0.1833359711977209</v>
+        <v>1.230644726845696</v>
       </c>
       <c r="F8">
-        <v>0.4021276102946771</v>
+        <v>0.5052412328041171</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.003827172219423192</v>
+      </c>
+      <c r="I8">
+        <v>0.0008070530784358709</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0.1266021664479986</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3100087401681435</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9449115168699578</v>
+        <v>1.130738777650919</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.054395720469643</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.530978964947607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.177820894031413</v>
+        <v>1.277075752423855</v>
       </c>
       <c r="C9">
-        <v>0.8675347692285982</v>
+        <v>0.2960685663038589</v>
       </c>
       <c r="D9">
-        <v>0.06056591805150902</v>
+        <v>0.08354514305199956</v>
       </c>
       <c r="E9">
-        <v>0.2468156274057023</v>
+        <v>1.65054805609401</v>
       </c>
       <c r="F9">
-        <v>0.5007375835153525</v>
+        <v>0.5783415176869937</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.009573285088355935</v>
+      </c>
+      <c r="I9">
+        <v>0.001065695289004687</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0.1169515404609527</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3116129304802442</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.279057650946612</v>
+        <v>1.498931984560016</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.261781874751875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.663937505330438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.765632469227285</v>
+        <v>1.511367304933742</v>
       </c>
       <c r="C10">
-        <v>1.021137242366621</v>
+        <v>0.3451787989459376</v>
       </c>
       <c r="D10">
-        <v>0.07076009989771137</v>
+        <v>0.097102367172333</v>
       </c>
       <c r="E10">
-        <v>0.2974809490926731</v>
+        <v>1.862102623328084</v>
       </c>
       <c r="F10">
-        <v>0.581360934238603</v>
+        <v>0.62395260723207</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.01461871517519908</v>
+      </c>
+      <c r="I10">
+        <v>0.00250825547244915</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0.114932936418576</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3083334455215443</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.52943779584642</v>
+        <v>1.769281048338371</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.440593256537454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.734580631691813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.034377876879489</v>
+        <v>1.621608112175267</v>
       </c>
       <c r="C11">
-        <v>1.091365903251045</v>
+        <v>0.3541470026908371</v>
       </c>
       <c r="D11">
-        <v>0.07540937532805714</v>
+        <v>0.116601181982233</v>
       </c>
       <c r="E11">
-        <v>0.3216513532955432</v>
+        <v>1.191136509340353</v>
       </c>
       <c r="F11">
-        <v>0.6201963499639334</v>
+        <v>0.5584022907084147</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.03083390209798154</v>
+      </c>
+      <c r="I11">
+        <v>0.003404389519552353</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0.1153087461869973</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2645418365483749</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.644824553552922</v>
+        <v>1.87755450797809</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.528879456445253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.494577135149825</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.136386626945296</v>
+        <v>1.667582065946846</v>
       </c>
       <c r="C12">
-        <v>1.118023909594967</v>
+        <v>0.3488994946264654</v>
       </c>
       <c r="D12">
-        <v>0.0771722663700487</v>
+        <v>0.1308866432931524</v>
       </c>
       <c r="E12">
-        <v>0.3309883509389735</v>
+        <v>0.7101617528777808</v>
       </c>
       <c r="F12">
-        <v>0.6352476070973267</v>
+        <v>0.4989574670039048</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.06754398198764733</v>
+      </c>
+      <c r="I12">
+        <v>0.003432337816445141</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>0.1156547569445507</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2334268462761422</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.688770849456503</v>
+        <v>1.909800049743751</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.563418906787888</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.300174374007213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.114405718293767</v>
+        <v>1.664559001836977</v>
       </c>
       <c r="C13">
-        <v>1.112279567002162</v>
+        <v>0.3350124846045048</v>
       </c>
       <c r="D13">
-        <v>0.07679248321917953</v>
+        <v>0.1421798476838632</v>
       </c>
       <c r="E13">
-        <v>0.3289688825472439</v>
+        <v>0.3476623684621316</v>
       </c>
       <c r="F13">
-        <v>0.6319901177159721</v>
+        <v>0.4377063514583952</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.121429532930037</v>
+      </c>
+      <c r="I13">
+        <v>0.003123199908765528</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0.1155708815166605</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2078485580832741</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.679294385795245</v>
+        <v>1.887240174937659</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.555929133987945</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.119351796126963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.042765089820364</v>
+        <v>1.639915359162387</v>
       </c>
       <c r="C14">
-        <v>1.093557713187636</v>
+        <v>0.3219934220936409</v>
       </c>
       <c r="D14">
-        <v>0.07555435945183575</v>
+        <v>0.1488517426666647</v>
       </c>
       <c r="E14">
-        <v>0.3224156837369421</v>
+        <v>0.1657298002148622</v>
       </c>
       <c r="F14">
-        <v>0.6214275005020795</v>
+        <v>0.3942217457821613</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1695933506139227</v>
+      </c>
+      <c r="I14">
+        <v>0.002856953180478072</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0.1153330241330295</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1926155350805132</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.648434764697299</v>
+        <v>1.847185966130496</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.531698187594998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.000111300073158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.998915949506795</v>
+        <v>1.6228912602582</v>
       </c>
       <c r="C15">
-        <v>1.082098770620718</v>
+        <v>0.3176071593448455</v>
       </c>
       <c r="D15">
-        <v>0.07479629277702315</v>
+        <v>0.1498005302331791</v>
       </c>
       <c r="E15">
-        <v>0.3184263616752432</v>
+        <v>0.1303757319496981</v>
       </c>
       <c r="F15">
-        <v>0.6150036147348743</v>
+        <v>0.3824196552281407</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1817112144757544</v>
+      </c>
+      <c r="I15">
+        <v>0.002833663393563057</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0.1152144050495281</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1893937273738526</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.629566338137124</v>
+        <v>1.826303953876504</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.517003635786182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.9707607604231328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.74810035204564</v>
+        <v>1.521556178340717</v>
       </c>
       <c r="C16">
-        <v>1.016555845201253</v>
+        <v>0.3006044570491895</v>
       </c>
       <c r="D16">
-        <v>0.07045654814911018</v>
+        <v>0.1413457475170645</v>
       </c>
       <c r="E16">
-        <v>0.2959258404122664</v>
+        <v>0.1273546698382901</v>
       </c>
       <c r="F16">
-        <v>0.5788692950509358</v>
+        <v>0.3748203163204167</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1675189754394069</v>
+      </c>
+      <c r="I16">
+        <v>0.002373350974791855</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0.1149358893521502</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1951109467233447</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.521930095960755</v>
+        <v>1.715494244277238</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.434972373329941</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.9751045687907975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.594610236251242</v>
+        <v>1.457052005496791</v>
       </c>
       <c r="C17">
-        <v>0.9764469677925263</v>
+        <v>0.2945018347205348</v>
       </c>
       <c r="D17">
-        <v>0.06779771031509796</v>
+        <v>0.1313361688808214</v>
       </c>
       <c r="E17">
-        <v>0.282425514581746</v>
+        <v>0.2081324352962213</v>
       </c>
       <c r="F17">
-        <v>0.5572788782680647</v>
+        <v>0.3917471400312849</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.129186961039764</v>
+      </c>
+      <c r="I17">
+        <v>0.002198578291658038</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0.1151085571249766</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2073377664465514</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.456305646515062</v>
+        <v>1.651955104853386</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.386501978517884</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.04033877492563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.506450508941271</v>
+        <v>1.417948863087446</v>
       </c>
       <c r="C18">
-        <v>0.9534098859246001</v>
+        <v>0.2958349225285701</v>
       </c>
       <c r="D18">
-        <v>0.06626949690298289</v>
+        <v>0.1190180763912281</v>
       </c>
       <c r="E18">
-        <v>0.2747646496554808</v>
+        <v>0.4325982487828242</v>
       </c>
       <c r="F18">
-        <v>0.545061664976366</v>
+        <v>0.4343652956570736</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07679303750409616</v>
+      </c>
+      <c r="I18">
+        <v>0.001928240854280894</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0.1153285397551436</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2288175232231815</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.418697746561961</v>
+        <v>1.620595281943622</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.359269655980626</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.176125122255996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.476621025971269</v>
+        <v>1.400096879005076</v>
       </c>
       <c r="C19">
-        <v>0.9456151278474181</v>
+        <v>0.3063721222294475</v>
       </c>
       <c r="D19">
-        <v>0.06575223819121589</v>
+        <v>0.1069115858176559</v>
       </c>
       <c r="E19">
-        <v>0.2721880446824159</v>
+        <v>0.8528005932155907</v>
       </c>
       <c r="F19">
-        <v>0.5409586442238492</v>
+        <v>0.4940895555460045</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.03328079301136455</v>
+      </c>
+      <c r="I19">
+        <v>0.002123164488232021</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0.1154232337069629</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2567265282336351</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.405986882687642</v>
+        <v>1.620230168875935</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.350157138951943</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.361370488845353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.610936388602227</v>
+        <v>1.446317132795372</v>
       </c>
       <c r="C20">
-        <v>0.9807131738947419</v>
+        <v>0.3372391929156606</v>
       </c>
       <c r="D20">
-        <v>0.06808063222027982</v>
+        <v>0.09436871941414182</v>
       </c>
       <c r="E20">
-        <v>0.2838517086523851</v>
+        <v>1.80214924836676</v>
       </c>
       <c r="F20">
-        <v>0.5595561682722803</v>
+        <v>0.6053370578055706</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.01315125577232434</v>
+      </c>
+      <c r="I20">
+        <v>0.002773203459543794</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0.11507756460718</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3045452403495261</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.463276981937796</v>
+        <v>1.70236977766416</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.391594058244095</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.694584225169564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.063800750807104</v>
+        <v>1.625771955809967</v>
       </c>
       <c r="C21">
-        <v>1.099054930458067</v>
+        <v>0.3773180135848122</v>
       </c>
       <c r="D21">
-        <v>0.07591795859235617</v>
+        <v>0.1024907754381061</v>
       </c>
       <c r="E21">
-        <v>0.3243353254433643</v>
+        <v>2.119537577931069</v>
       </c>
       <c r="F21">
-        <v>0.6245203403241959</v>
+        <v>0.6580267674958691</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.0182251538528988</v>
+      </c>
+      <c r="I21">
+        <v>0.004209696658263873</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0.1153972125920859</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3110908063771838</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.657491828792075</v>
+        <v>1.912579019601367</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.538784436177707</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.805054938002996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.361201696630019</v>
+        <v>1.744857863421004</v>
       </c>
       <c r="C22">
-        <v>1.176777721724136</v>
+        <v>0.4007450975822167</v>
       </c>
       <c r="D22">
-        <v>0.0810539002377979</v>
+        <v>0.1081992482743033</v>
       </c>
       <c r="E22">
-        <v>0.3518795598290296</v>
+        <v>2.277270433973484</v>
       </c>
       <c r="F22">
-        <v>0.6690080599584434</v>
+        <v>0.6906152858277608</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.02161996862649396</v>
+      </c>
+      <c r="I22">
+        <v>0.005112648407088471</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0.1168026989937836</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3149470840460182</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.785910578610284</v>
+        <v>2.047613936598992</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.641493923264477</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.871191907126246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.202325902132486</v>
+        <v>1.682665440529547</v>
       </c>
       <c r="C23">
-        <v>1.135256245857533</v>
+        <v>0.3862509218609773</v>
       </c>
       <c r="D23">
-        <v>0.07831127445275854</v>
+        <v>0.1048567585223452</v>
       </c>
       <c r="E23">
-        <v>0.3370711986412829</v>
+        <v>2.19305527020127</v>
       </c>
       <c r="F23">
-        <v>0.645066185865403</v>
+        <v>0.6754420108806372</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.01978586513042235</v>
+      </c>
+      <c r="I23">
+        <v>0.004328234004732145</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0.1159368669863454</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3145117452641735</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.717221433205168</v>
+        <v>1.97388462950542</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.586041641661808</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.843128879925928</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.603555077654448</v>
+        <v>1.444992736202437</v>
       </c>
       <c r="C24">
-        <v>0.9787843544160637</v>
+        <v>0.3350994563063239</v>
       </c>
       <c r="D24">
-        <v>0.0679527220635805</v>
+        <v>0.09268954715325606</v>
       </c>
       <c r="E24">
-        <v>0.2832066144977858</v>
+        <v>1.875780879810776</v>
       </c>
       <c r="F24">
-        <v>0.5585259993996985</v>
+        <v>0.6158302224333454</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.01345595309092373</v>
+      </c>
+      <c r="I24">
+        <v>0.002326693165805693</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0.115091201642489</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.310885850927324</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.460124868778536</v>
+        <v>1.698046756989157</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.389289962494303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.729256021709801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.962256498185354</v>
+        <v>1.188646319857128</v>
       </c>
       <c r="C25">
-        <v>0.811202725730908</v>
+        <v>0.280813432029376</v>
       </c>
       <c r="D25">
-        <v>0.05681865063048264</v>
+        <v>0.07955870015011612</v>
       </c>
       <c r="E25">
-        <v>0.2290132044252857</v>
+        <v>1.536498415054922</v>
       </c>
       <c r="F25">
-        <v>0.4727470645257483</v>
+        <v>0.5545938364927565</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.007801446309499527</v>
+      </c>
+      <c r="I25">
+        <v>0.001204920396407516</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0.1187330059578855</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.308410793274394</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.187937702498132</v>
+        <v>1.401611250196595</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.201414879520797</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.615222453311645</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.002870284560657</v>
+        <v>0.9906571456177744</v>
       </c>
       <c r="C2">
-        <v>0.2367893809097978</v>
+        <v>0.2575728607701677</v>
       </c>
       <c r="D2">
-        <v>0.06917483394727242</v>
+        <v>0.0722987869956313</v>
       </c>
       <c r="E2">
-        <v>1.288497911585296</v>
+        <v>1.291733840077569</v>
       </c>
       <c r="F2">
-        <v>0.5173257597712109</v>
+        <v>0.4775830697468564</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.004494954454769773</v>
+        <v>0.004793195752909596</v>
       </c>
       <c r="I2">
-        <v>0.0004725720980895964</v>
+        <v>0.0005457531484136524</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.3117739213565898</v>
+        <v>0.2760140315702486</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1484164703463833</v>
       </c>
       <c r="M2">
-        <v>1.179976351462074</v>
+        <v>0.06796627968572011</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.206224001128817</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.555960404762772</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.418831677516451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.874769149183436</v>
+        <v>0.8669359256662688</v>
       </c>
       <c r="C3">
-        <v>0.2099287711564415</v>
+        <v>0.224038556070667</v>
       </c>
       <c r="D3">
-        <v>0.06251960073977614</v>
+        <v>0.06463360771582671</v>
       </c>
       <c r="E3">
-        <v>1.121019753142491</v>
+        <v>1.124465505609336</v>
       </c>
       <c r="F3">
-        <v>0.4900385520879027</v>
+        <v>0.4558049143214333</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.002697183626527266</v>
+        <v>0.002965379978892901</v>
       </c>
       <c r="I3">
-        <v>0.0007354908268393245</v>
+        <v>0.0005707358764577286</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.3122970010318156</v>
+        <v>0.2795272762280625</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1534606028119221</v>
       </c>
       <c r="M3">
-        <v>1.032101767203727</v>
+        <v>0.06677497304100832</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.053417291498818</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.508765303063768</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.388491621902574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7958685259380331</v>
+        <v>0.7906333793669944</v>
       </c>
       <c r="C4">
-        <v>0.1936281177496824</v>
+        <v>0.2037732965439858</v>
       </c>
       <c r="D4">
-        <v>0.05843191180554186</v>
+        <v>0.0599432281996144</v>
       </c>
       <c r="E4">
-        <v>1.018394304790291</v>
+        <v>1.021934844443791</v>
       </c>
       <c r="F4">
-        <v>0.4737155108570619</v>
+        <v>0.4427564747321711</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.001791684380057834</v>
+        <v>0.00203023590835727</v>
       </c>
       <c r="I4">
-        <v>0.001089146306462396</v>
+        <v>0.0007473461801841275</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.3128178540986717</v>
+        <v>0.2818167404792398</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1566509060131658</v>
       </c>
       <c r="M4">
-        <v>0.9413552070135722</v>
+        <v>0.06655982976920605</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9596871813083396</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.481015802764901</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.370766720898317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7633177895516781</v>
+        <v>0.7591330767156421</v>
       </c>
       <c r="C5">
-        <v>0.1875012181386211</v>
+        <v>0.1960768089142704</v>
       </c>
       <c r="D5">
-        <v>0.05683551579215163</v>
+        <v>0.05810602084425653</v>
       </c>
       <c r="E5">
-        <v>0.9765978771394117</v>
+        <v>0.9801694427296042</v>
       </c>
       <c r="F5">
-        <v>0.4665801299141989</v>
+        <v>0.4369712967053516</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.001468463327688241</v>
+        <v>0.001692263801550853</v>
       </c>
       <c r="I5">
-        <v>0.001349465107188585</v>
+        <v>0.0009398149953128154</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.3126433361659764</v>
+        <v>0.2823971315483647</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1577765929467141</v>
       </c>
       <c r="M5">
-        <v>0.9047722951682147</v>
+        <v>0.06650851603130903</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9218891371317568</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.468078846422728</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.361993551603518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7575020923567592</v>
+        <v>0.7535071471162667</v>
       </c>
       <c r="C6">
-        <v>0.1870656808104769</v>
+        <v>0.1953991328609845</v>
       </c>
       <c r="D6">
-        <v>0.05665642784325797</v>
+        <v>0.05788776738324941</v>
       </c>
       <c r="E6">
-        <v>0.9696452843652708</v>
+        <v>0.9732216619901948</v>
       </c>
       <c r="F6">
-        <v>0.4646861949424306</v>
+        <v>0.435351801206366</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.001416667094991997</v>
+        <v>0.001637829146606373</v>
       </c>
       <c r="I6">
-        <v>0.001488814111365144</v>
+        <v>0.00108323455867243</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.3120869101472969</v>
+        <v>0.2820273807463565</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1577245258443192</v>
       </c>
       <c r="M6">
-        <v>0.8991798142887149</v>
+        <v>0.06639467433083368</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9160816103097318</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.463603625886492</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.358399213731772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7943154758928017</v>
+        <v>0.7891409504281626</v>
       </c>
       <c r="C7">
-        <v>0.1951308879443161</v>
+        <v>0.2053052169900553</v>
       </c>
       <c r="D7">
-        <v>0.0586463015045311</v>
+        <v>0.06015637733636225</v>
       </c>
       <c r="E7">
-        <v>1.017791675549674</v>
+        <v>1.021333065104983</v>
       </c>
       <c r="F7">
-        <v>0.4716658256566078</v>
+        <v>0.440870356061815</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.001784577548196831</v>
+        <v>0.002022869984037445</v>
       </c>
       <c r="I7">
-        <v>0.00133183939380821</v>
+        <v>0.001029867681798358</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.3113684325938593</v>
+        <v>0.2805538425161096</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1560310619534135</v>
       </c>
       <c r="M7">
-        <v>0.942182596072513</v>
+        <v>0.06623383378071601</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9604603487540828</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.474441074629866</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.364794557179138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9572589335486441</v>
+        <v>0.9466409864417642</v>
       </c>
       <c r="C8">
-        <v>0.229604454556366</v>
+        <v>0.2481464267020357</v>
       </c>
       <c r="D8">
-        <v>0.06719666738198526</v>
+        <v>0.06997338905740236</v>
       </c>
       <c r="E8">
-        <v>1.230644726845696</v>
+        <v>1.233961766974488</v>
       </c>
       <c r="F8">
-        <v>0.5052412328041171</v>
+        <v>0.4676282177512832</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.003827172219423192</v>
+        <v>0.004117503724037741</v>
       </c>
       <c r="I8">
-        <v>0.0008070530784358709</v>
+        <v>0.000856438235864232</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.3100087401681435</v>
+        <v>0.2755518162406787</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1493868223085464</v>
       </c>
       <c r="M8">
-        <v>1.130738777650919</v>
+        <v>0.06695436132140564</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.155229195642079</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.530978964947607</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.400516000807542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.277075752423855</v>
+        <v>1.254918110804908</v>
       </c>
       <c r="C9">
-        <v>0.2960685663038589</v>
+        <v>0.3319904625338097</v>
       </c>
       <c r="D9">
-        <v>0.08354514305199956</v>
+        <v>0.08893904122942331</v>
       </c>
       <c r="E9">
-        <v>1.65054805609401</v>
+        <v>1.653110818914413</v>
       </c>
       <c r="F9">
-        <v>0.5783415176869937</v>
+        <v>0.5261834099798719</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.009573285088355935</v>
+        <v>0.009868401549891305</v>
       </c>
       <c r="I9">
-        <v>0.001065695289004687</v>
+        <v>0.001470371098858614</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.3116129304802442</v>
+        <v>0.2691048133346676</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1380875466923328</v>
       </c>
       <c r="M9">
-        <v>1.498931984560016</v>
+        <v>0.07321689665033659</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.535983470849146</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.663937505330438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.488899486303694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.511367304933742</v>
+        <v>1.480752747768975</v>
       </c>
       <c r="C10">
-        <v>0.3451787989459376</v>
+        <v>0.3936527133102459</v>
       </c>
       <c r="D10">
-        <v>0.097102367172333</v>
+        <v>0.1044719203197459</v>
       </c>
       <c r="E10">
-        <v>1.862102623328084</v>
+        <v>1.863837175810758</v>
       </c>
       <c r="F10">
-        <v>0.62395260723207</v>
+        <v>0.562031567607562</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.01461871517519908</v>
+        <v>0.01484497287178987</v>
       </c>
       <c r="I10">
-        <v>0.00250825547244915</v>
+        <v>0.003004779137270042</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.3083334455215443</v>
+        <v>0.2609133367620444</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1287362474835803</v>
       </c>
       <c r="M10">
-        <v>1.769281048338371</v>
+        <v>0.0786901905199322</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.815012526060002</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.734580631691813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.530513923206769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.621608112175267</v>
+        <v>1.59191011610622</v>
       </c>
       <c r="C11">
-        <v>0.3541470026908371</v>
+        <v>0.3999197524239264</v>
       </c>
       <c r="D11">
-        <v>0.116601181982233</v>
+        <v>0.1244577758651246</v>
       </c>
       <c r="E11">
-        <v>1.191136509340353</v>
+        <v>1.192329966878006</v>
       </c>
       <c r="F11">
-        <v>0.5584022907084147</v>
+        <v>0.5042333749151737</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.03083390209798154</v>
+        <v>0.03101633281054461</v>
       </c>
       <c r="I11">
-        <v>0.003404389519552353</v>
+        <v>0.003997597248661222</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.2645418365483749</v>
+        <v>0.2255046453566543</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.113877393904767</v>
       </c>
       <c r="M11">
-        <v>1.87755450797809</v>
+        <v>0.0681406814644383</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.921293926527795</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.494577135149825</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.321042812654781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.667582065946846</v>
+        <v>1.640512749076748</v>
       </c>
       <c r="C12">
-        <v>0.3488994946264654</v>
+        <v>0.3895739302122934</v>
       </c>
       <c r="D12">
-        <v>0.1308866432931524</v>
+        <v>0.1385797858262521</v>
       </c>
       <c r="E12">
-        <v>0.7101617528777808</v>
+        <v>0.711089312982196</v>
       </c>
       <c r="F12">
-        <v>0.4989574670039048</v>
+        <v>0.4526361018425078</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06754398198764733</v>
+        <v>0.06771202423156808</v>
       </c>
       <c r="I12">
-        <v>0.003432337816445141</v>
+        <v>0.004025561320075255</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.2334268462761422</v>
+        <v>0.2014627797548592</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1051282389095345</v>
       </c>
       <c r="M12">
-        <v>1.909800049743751</v>
+        <v>0.05923951660277815</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.949898355780761</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.300174374007213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.1551666458613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.664559001836977</v>
+        <v>1.641669575492983</v>
       </c>
       <c r="C13">
-        <v>0.3350124846045048</v>
+        <v>0.3686864919550601</v>
       </c>
       <c r="D13">
-        <v>0.1421798476838632</v>
+        <v>0.1491909941130274</v>
       </c>
       <c r="E13">
-        <v>0.3476623684621316</v>
+        <v>0.3484241624544708</v>
       </c>
       <c r="F13">
-        <v>0.4377063514583952</v>
+        <v>0.3999034990225212</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.121429532930037</v>
+        <v>0.1215988997421249</v>
       </c>
       <c r="I13">
-        <v>0.003123199908765528</v>
+        <v>0.003717024731870744</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.2078485580832741</v>
+        <v>0.1825801457809426</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09919479205441917</v>
       </c>
       <c r="M13">
-        <v>1.887240174937659</v>
+        <v>0.05065855323688062</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.92219414658328</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.119351796126963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.003475269917615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.639915359162387</v>
+        <v>1.620646157074077</v>
       </c>
       <c r="C14">
-        <v>0.3219934220936409</v>
+        <v>0.3500155140834238</v>
       </c>
       <c r="D14">
-        <v>0.1488517426666647</v>
+        <v>0.1551298137333106</v>
       </c>
       <c r="E14">
-        <v>0.1657298002148622</v>
+        <v>0.1663870771023923</v>
       </c>
       <c r="F14">
-        <v>0.3942217457821613</v>
+        <v>0.362543715773036</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1695933506139227</v>
+        <v>0.1697682787077071</v>
       </c>
       <c r="I14">
-        <v>0.002856953180478072</v>
+        <v>0.003462017123796457</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.1926155350805132</v>
+        <v>0.1717190065256293</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09611173254612915</v>
       </c>
       <c r="M14">
-        <v>1.847185966130496</v>
+        <v>0.04503052748418668</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.877863251753297</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.000111300073158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.9043027913768213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.6228912602582</v>
+        <v>1.604827194188061</v>
       </c>
       <c r="C15">
-        <v>0.3176071593448455</v>
+        <v>0.3438830256686458</v>
       </c>
       <c r="D15">
-        <v>0.1498005302331791</v>
+        <v>0.1558058454103843</v>
       </c>
       <c r="E15">
-        <v>0.1303757319496981</v>
+        <v>0.1310162289512391</v>
       </c>
       <c r="F15">
-        <v>0.3824196552281407</v>
+        <v>0.3524545326495172</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1817112144757544</v>
+        <v>0.1818892681376241</v>
       </c>
       <c r="I15">
-        <v>0.002833663393563057</v>
+        <v>0.003461497801555247</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.1893937273738526</v>
+        <v>0.1695948110365464</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09563575600698737</v>
       </c>
       <c r="M15">
-        <v>1.826303953876504</v>
+        <v>0.0436221741158711</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.855635600216004</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.9707607604231328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.8803173344027329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.521556178340717</v>
+        <v>1.506257977882967</v>
       </c>
       <c r="C16">
-        <v>0.3006044570491895</v>
+        <v>0.3232182404650246</v>
       </c>
       <c r="D16">
-        <v>0.1413457475170645</v>
+        <v>0.1465891313807504</v>
       </c>
       <c r="E16">
-        <v>0.1273546698382901</v>
+        <v>0.12811468062214</v>
       </c>
       <c r="F16">
-        <v>0.3748203163204167</v>
+        <v>0.3469081207984388</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1675189754394069</v>
+        <v>0.1677106236111854</v>
       </c>
       <c r="I16">
-        <v>0.002373350974791855</v>
+        <v>0.003001899401636088</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926776106</v>
       </c>
       <c r="K16">
-        <v>0.1951109467233447</v>
+        <v>0.1756597617676086</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09875191353361945</v>
       </c>
       <c r="M16">
-        <v>1.715494244277238</v>
+        <v>0.04369403489014267</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.742240104313424</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.9751045687907975</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.8894921800676059</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.457052005496791</v>
+        <v>1.441946055156734</v>
       </c>
       <c r="C17">
-        <v>0.2945018347205348</v>
+        <v>0.317258362576041</v>
       </c>
       <c r="D17">
-        <v>0.1313361688808214</v>
+        <v>0.1364107421840544</v>
       </c>
       <c r="E17">
-        <v>0.2081324352962213</v>
+        <v>0.2090868556454168</v>
       </c>
       <c r="F17">
-        <v>0.3917471400312849</v>
+        <v>0.3623113271715681</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.129186961039764</v>
+        <v>0.1293865471451028</v>
       </c>
       <c r="I17">
-        <v>0.002198578291658038</v>
+        <v>0.002820744827381816</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234339</v>
       </c>
       <c r="K17">
-        <v>0.2073377664465514</v>
+        <v>0.1860104233754463</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1031017171051545</v>
       </c>
       <c r="M17">
-        <v>1.651955104853386</v>
+        <v>0.04646171618218986</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.678979829022637</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.04033877492563</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.9484442365047556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.417948863087446</v>
+        <v>1.400875350083368</v>
       </c>
       <c r="C18">
-        <v>0.2958349225285701</v>
+        <v>0.3219988487892067</v>
       </c>
       <c r="D18">
-        <v>0.1190180763912281</v>
+        <v>0.1243473318063337</v>
       </c>
       <c r="E18">
-        <v>0.4325982487828242</v>
+        <v>0.4338679352147707</v>
       </c>
       <c r="F18">
-        <v>0.4343652956570736</v>
+        <v>0.3998066427701303</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07679303750409616</v>
+        <v>0.07700538810014024</v>
       </c>
       <c r="I18">
-        <v>0.001928240854280894</v>
+        <v>0.002500017516918085</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146320727</v>
       </c>
       <c r="K18">
-        <v>0.2288175232231815</v>
+        <v>0.2030276608830306</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1098268149181401</v>
       </c>
       <c r="M18">
-        <v>1.620595281943622</v>
+        <v>0.05228184695239513</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.650369290785136</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.176125122255996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.066132128691066</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.400096879005076</v>
+        <v>1.379601783524407</v>
       </c>
       <c r="C19">
-        <v>0.3063721222294475</v>
+        <v>0.3385525180455318</v>
       </c>
       <c r="D19">
-        <v>0.1069115858176559</v>
+        <v>0.11271269645448</v>
       </c>
       <c r="E19">
-        <v>0.8528005932155907</v>
+        <v>0.8544576342973471</v>
       </c>
       <c r="F19">
-        <v>0.4940895555460045</v>
+        <v>0.4516152319497522</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.03328079301136455</v>
+        <v>0.03351399598413707</v>
       </c>
       <c r="I19">
-        <v>0.002123164488232021</v>
+        <v>0.002726305362448223</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768438788</v>
       </c>
       <c r="K19">
-        <v>0.2567265282336351</v>
+        <v>0.2243817160670751</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1180236691143612</v>
       </c>
       <c r="M19">
-        <v>1.620230168875935</v>
+        <v>0.06020611050421287</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.654412352869485</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.361370488845353</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.223715342358247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.446317132795372</v>
+        <v>1.418158941867034</v>
       </c>
       <c r="C20">
-        <v>0.3372391929156606</v>
+        <v>0.3826241176919041</v>
       </c>
       <c r="D20">
-        <v>0.09436871941414182</v>
+        <v>0.1012297462135479</v>
       </c>
       <c r="E20">
-        <v>1.80214924836676</v>
+        <v>1.80411945142373</v>
       </c>
       <c r="F20">
-        <v>0.6053370578055706</v>
+        <v>0.5466264229133415</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.01315125577232434</v>
+        <v>0.0134009704746747</v>
       </c>
       <c r="I20">
-        <v>0.002773203459543794</v>
+        <v>0.003414819517817413</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.3045452403495261</v>
+        <v>0.2591954699220089</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1297486265702137</v>
       </c>
       <c r="M20">
-        <v>1.70236977766416</v>
+        <v>0.07560532293918953</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.745684866356015</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.694584225169564</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.500565714613572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.625771955809967</v>
+        <v>1.590061875216293</v>
       </c>
       <c r="C21">
-        <v>0.3773180135848122</v>
+        <v>0.4340951627599168</v>
       </c>
       <c r="D21">
-        <v>0.1024907754381061</v>
+        <v>0.1109578129054896</v>
       </c>
       <c r="E21">
-        <v>2.119537577931069</v>
+        <v>2.120812697196158</v>
       </c>
       <c r="F21">
-        <v>0.6580267674958691</v>
+        <v>0.5893340558959679</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.0182251538528988</v>
+        <v>0.0183974296171745</v>
       </c>
       <c r="I21">
-        <v>0.004209696658263873</v>
+        <v>0.004820944002737804</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>0.3110908063771838</v>
+        <v>0.2598224304390655</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1252371829110235</v>
       </c>
       <c r="M21">
-        <v>1.912579019601367</v>
+        <v>0.08318618369032293</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.963629804350234</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.805054938002996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.579900049592851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.744857863421004</v>
+        <v>1.70428358432531</v>
       </c>
       <c r="C22">
-        <v>0.4007450975822167</v>
+        <v>0.4644732138738732</v>
       </c>
       <c r="D22">
-        <v>0.1081992482743033</v>
+        <v>0.117702664328931</v>
       </c>
       <c r="E22">
-        <v>2.277270433973484</v>
+        <v>2.278003575906538</v>
       </c>
       <c r="F22">
-        <v>0.6906152858277608</v>
+        <v>0.6157445732910531</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02161996862649396</v>
+        <v>0.02172278723014531</v>
       </c>
       <c r="I22">
-        <v>0.005112648407088471</v>
+        <v>0.005592020373241802</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>0.3149470840460182</v>
+        <v>0.2600412012673416</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1221692637589005</v>
       </c>
       <c r="M22">
-        <v>2.047613936598992</v>
+        <v>0.08855236711390901</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.10342868729947</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.871191907126246</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.626952972970741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.682665440529547</v>
+        <v>1.644630061885664</v>
       </c>
       <c r="C23">
-        <v>0.3862509218609773</v>
+        <v>0.4461310178498934</v>
       </c>
       <c r="D23">
-        <v>0.1048567585223452</v>
+        <v>0.1137971494467251</v>
       </c>
       <c r="E23">
-        <v>2.19305527020127</v>
+        <v>2.194081214418404</v>
       </c>
       <c r="F23">
-        <v>0.6754420108806372</v>
+        <v>0.6036605149662293</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.01978586513042235</v>
+        <v>0.01992701726219659</v>
       </c>
       <c r="I23">
-        <v>0.004328234004732145</v>
+        <v>0.004820844470708963</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>0.3145117452641735</v>
+        <v>0.2612689634723857</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1242516086467997</v>
       </c>
       <c r="M23">
-        <v>1.97388462950542</v>
+        <v>0.08621903320913304</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.027195332208635</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.843128879925928</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.608265533740592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.444992736202437</v>
+        <v>1.416427848641092</v>
       </c>
       <c r="C24">
-        <v>0.3350994563063239</v>
+        <v>0.3809178219846387</v>
       </c>
       <c r="D24">
-        <v>0.09268954715325606</v>
+        <v>0.0995461534912323</v>
       </c>
       <c r="E24">
-        <v>1.875780879810776</v>
+        <v>1.877782796988186</v>
       </c>
       <c r="F24">
-        <v>0.6158302224333454</v>
+        <v>0.5558412940083031</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.01345595309092373</v>
+        <v>0.01370772333837456</v>
       </c>
       <c r="I24">
-        <v>0.002326693165805693</v>
+        <v>0.002870675430689751</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.310885850927324</v>
+        <v>0.2642440306964353</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1316711059890476</v>
       </c>
       <c r="M24">
-        <v>1.698046756989157</v>
+        <v>0.07748618156786335</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.74182289176963</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.729256021709801</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.530482911911804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.188646319857128</v>
+        <v>1.169797331267176</v>
       </c>
       <c r="C25">
-        <v>0.280813432029376</v>
+        <v>0.3120608532439633</v>
       </c>
       <c r="D25">
-        <v>0.07955870015011612</v>
+        <v>0.08423843592661484</v>
       </c>
       <c r="E25">
-        <v>1.536498415054922</v>
+        <v>1.539307698868598</v>
       </c>
       <c r="F25">
-        <v>0.5545938364927565</v>
+        <v>0.5067775363003051</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.007801446309499527</v>
+        <v>0.008107153481941354</v>
       </c>
       <c r="I25">
-        <v>0.001204920396407516</v>
+        <v>0.001625763819650849</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.308410793274394</v>
+        <v>0.2685317188727048</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1401830149591774</v>
       </c>
       <c r="M25">
-        <v>1.401611250196595</v>
+        <v>0.07030054540001807</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.435174368854661</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.615222453311645</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.4537132849741</v>
       </c>
     </row>
   </sheetData>
